--- a/タスク洗い出し.xlsx
+++ b/タスク洗い出し.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuya\Desktop\Koshi2t\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ソースツリー\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="11640" tabRatio="645" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="11640" tabRatio="645"/>
   </bookViews>
   <sheets>
     <sheet name="作業リスト (メインゲーム)" sheetId="2" r:id="rId1"/>
@@ -3187,7 +3187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3269,8 +3269,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="HG創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="HG創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3299,6 +3315,16 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -3416,7 +3442,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
@@ -3424,8 +3450,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -3525,6 +3557,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3570,9 +3605,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3615,18 +3647,162 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Custom Style  1" xfId="1"/>
     <cellStyle name="Custom Style 2" xfId="2"/>
+    <cellStyle name="どちらでもない" xfId="6" builtinId="28"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="標準 2" xfId="3"/>
     <cellStyle name="標準 3" xfId="4"/>
+    <cellStyle name="良い" xfId="5" builtinId="26"/>
   </cellStyles>
-  <dxfs count="154">
+  <dxfs count="43">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8BFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3761,923 +3937,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7171"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="3"/>
       </font>
@@ -4729,10 +3988,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9">
     <tableStyle name="Project Timeline" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="153"/>
-      <tableStyleElement type="headerRow" dxfId="152"/>
-      <tableStyleElement type="firstRowStripe" dxfId="151"/>
-      <tableStyleElement type="secondRowStripe" dxfId="150"/>
+      <tableStyleElement type="wholeTable" dxfId="42"/>
+      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="40"/>
+      <tableStyleElement type="secondRowStripe" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5158,41 +4417,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM171"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <pane xSplit="11" ySplit="3" topLeftCell="L137" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="83.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5546875" style="1" customWidth="1"/>
-    <col min="11" max="39" width="2.6640625" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="83.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="1" customWidth="1"/>
+    <col min="11" max="39" width="2.625" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
@@ -5224,16 +4483,16 @@
       <c r="AL1" s="24"/>
       <c r="AM1" s="24"/>
     </row>
-    <row r="2" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+    <row r="2" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
@@ -5265,7 +4524,7 @@
       <c r="AL2" s="24"/>
       <c r="AM2" s="24"/>
     </row>
-    <row r="3" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="23" t="s">
         <v>123</v>
       </c>
@@ -5319,11 +4578,11 @@
       <c r="AL3" s="18"/>
       <c r="AM3" s="18"/>
     </row>
-    <row r="4" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="51" t="s">
+    <row r="4" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -5369,9 +4628,9 @@
       <c r="AL4" s="18"/>
       <c r="AM4" s="18"/>
     </row>
-    <row r="5" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="51"/>
-      <c r="C5" s="46"/>
+    <row r="5" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="52"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="21" t="s">
         <v>114</v>
       </c>
@@ -5415,9 +4674,9 @@
       <c r="AL5" s="18"/>
       <c r="AM5" s="18"/>
     </row>
-    <row r="6" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="51"/>
-      <c r="C6" s="46"/>
+    <row r="6" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="52"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="21" t="s">
         <v>113</v>
       </c>
@@ -5461,9 +4720,9 @@
       <c r="AL6" s="18"/>
       <c r="AM6" s="18"/>
     </row>
-    <row r="7" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
-      <c r="C7" s="46"/>
+    <row r="7" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="52"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="21" t="s">
         <v>112</v>
       </c>
@@ -5507,9 +4766,9 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
     </row>
-    <row r="8" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="51"/>
-      <c r="C8" s="46"/>
+    <row r="8" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="52"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="21" t="s">
         <v>111</v>
       </c>
@@ -5553,9 +4812,9 @@
       <c r="AL8" s="18"/>
       <c r="AM8" s="18"/>
     </row>
-    <row r="9" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
-      <c r="C9" s="46"/>
+    <row r="9" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="52"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="21" t="s">
         <v>110</v>
       </c>
@@ -5599,9 +4858,9 @@
       <c r="AL9" s="18"/>
       <c r="AM9" s="18"/>
     </row>
-    <row r="10" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="51"/>
-      <c r="C10" s="46"/>
+    <row r="10" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="52"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="21" t="s">
         <v>109</v>
       </c>
@@ -5643,9 +4902,9 @@
       <c r="AL10" s="18"/>
       <c r="AM10" s="18"/>
     </row>
-    <row r="11" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="51"/>
-      <c r="C11" s="46"/>
+    <row r="11" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="52"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="21" t="s">
         <v>214</v>
       </c>
@@ -5687,9 +4946,9 @@
       <c r="AL11" s="18"/>
       <c r="AM11" s="18"/>
     </row>
-    <row r="12" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="51"/>
-      <c r="C12" s="46"/>
+    <row r="12" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="52"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="21" t="s">
         <v>215</v>
       </c>
@@ -5733,9 +4992,9 @@
       <c r="AL12" s="18"/>
       <c r="AM12" s="18"/>
     </row>
-    <row r="13" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="51"/>
-      <c r="C13" s="46"/>
+    <row r="13" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="52"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="20"/>
       <c r="E13" s="10"/>
       <c r="F13" s="19"/>
@@ -5773,9 +5032,9 @@
       <c r="AL13" s="18"/>
       <c r="AM13" s="18"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="B14" s="52"/>
+      <c r="C14" s="53" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -5788,11 +5047,11 @@
       <c r="G14" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B15" s="51"/>
-      <c r="C15" s="53"/>
+      <c r="H14" s="74"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="B15" s="52"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="12" t="s">
         <v>106</v>
       </c>
@@ -5803,11 +5062,11 @@
       <c r="G15" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B16" s="51"/>
-      <c r="C16" s="53"/>
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="B16" s="52"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="12" t="s">
         <v>105</v>
       </c>
@@ -5818,11 +5077,11 @@
       <c r="G16" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="51"/>
-      <c r="C17" s="53"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="52"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="12" t="s">
         <v>104</v>
       </c>
@@ -5833,11 +5092,11 @@
       <c r="G17" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="51"/>
-      <c r="C18" s="53"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="52"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="12" t="s">
         <v>103</v>
       </c>
@@ -5850,9 +5109,9 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="51"/>
-      <c r="C19" s="53"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="52"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="9" t="s">
         <v>216</v>
       </c>
@@ -5860,12 +5119,12 @@
         <v>208</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="73"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="51"/>
-      <c r="C20" s="53"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="52"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="9" t="s">
         <v>217</v>
       </c>
@@ -5873,12 +5132,12 @@
         <v>208</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="73"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="51"/>
-      <c r="C21" s="53"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="52"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="12" t="s">
         <v>102</v>
       </c>
@@ -5886,14 +5145,14 @@
         <v>212</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="73" t="s">
+      <c r="G21" s="43" t="s">
         <v>233</v>
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="51"/>
-      <c r="C22" s="53"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="52"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="12" t="s">
         <v>101</v>
       </c>
@@ -5901,14 +5160,14 @@
         <v>212</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="73" t="s">
+      <c r="G22" s="43" t="s">
         <v>232</v>
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="51"/>
-      <c r="C23" s="53"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="52"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="12" t="s">
         <v>100</v>
       </c>
@@ -5919,38 +5178,38 @@
       <c r="G23" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="51"/>
-      <c r="C24" s="53"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="52"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="12"/>
       <c r="E24" s="10"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="73"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="51"/>
-      <c r="C25" s="53"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="52"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="12"/>
       <c r="E25" s="10"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="73"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="51"/>
-      <c r="C26" s="54"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="52"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="12"/>
       <c r="E26" s="10"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="73"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="51"/>
-      <c r="C27" s="51" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52" t="s">
         <v>99</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -5960,12 +5219,12 @@
         <v>208</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="73"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="12" t="s">
         <v>97</v>
       </c>
@@ -5978,9 +5237,9 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="2:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
+    <row r="29" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="12" t="s">
         <v>96</v>
       </c>
@@ -5991,11 +5250,11 @@
       <c r="G29" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
+      <c r="H29" s="75"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="13" t="s">
         <v>95</v>
       </c>
@@ -6008,9 +5267,9 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="12" t="s">
         <v>94</v>
       </c>
@@ -6023,9 +5282,9 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="12" t="s">
         <v>93</v>
       </c>
@@ -6033,23 +5292,23 @@
         <v>212</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="73" t="s">
+      <c r="G32" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="73"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="51"/>
-      <c r="C34" s="47" t="s">
+    <row r="34" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="52"/>
+      <c r="C34" s="48" t="s">
         <v>203</v>
       </c>
       <c r="D34" s="12" t="s">
@@ -6059,14 +5318,14 @@
         <v>212</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="73" t="s">
+      <c r="G34" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="51"/>
-      <c r="C35" s="49"/>
+    <row r="35" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="52"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="12" t="s">
         <v>91</v>
       </c>
@@ -6074,23 +5333,23 @@
         <v>212</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="51"/>
+    <row r="36" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="52"/>
       <c r="C36" s="38"/>
       <c r="D36" s="12"/>
       <c r="E36" s="10"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="73"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="51"/>
-      <c r="C37" s="50" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="52"/>
+      <c r="C37" s="51" t="s">
         <v>204</v>
       </c>
       <c r="D37" s="12" t="s">
@@ -6103,11 +5362,11 @@
       <c r="G37" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="51"/>
-      <c r="C38" s="50"/>
+      <c r="H37" s="75"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="52"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="12" t="s">
         <v>89</v>
       </c>
@@ -6118,11 +5377,11 @@
       <c r="G38" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="51"/>
-      <c r="C39" s="50"/>
+      <c r="H38" s="75"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="52"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="12" t="s">
         <v>88</v>
       </c>
@@ -6133,11 +5392,11 @@
       <c r="G39" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="51"/>
-      <c r="C40" s="50"/>
+      <c r="H39" s="75"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="52"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="12" t="s">
         <v>87</v>
       </c>
@@ -6150,9 +5409,9 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="51"/>
-      <c r="C41" s="50"/>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="52"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="12" t="s">
         <v>86</v>
       </c>
@@ -6165,9 +5424,9 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="51"/>
-      <c r="C42" s="50"/>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="52"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="12" t="s">
         <v>85</v>
       </c>
@@ -6178,11 +5437,11 @@
       <c r="G42" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="51"/>
-      <c r="C43" s="50"/>
+      <c r="H42" s="75"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="52"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="12" t="s">
         <v>84</v>
       </c>
@@ -6190,14 +5449,14 @@
         <v>212</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="73" t="s">
+      <c r="G43" s="43" t="s">
         <v>232</v>
       </c>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="51"/>
-      <c r="C44" s="50"/>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="52"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="12" t="s">
         <v>235</v>
       </c>
@@ -6205,14 +5464,14 @@
         <v>212</v>
       </c>
       <c r="F44" s="9"/>
-      <c r="G44" s="73" t="s">
+      <c r="G44" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="51"/>
-      <c r="C45" s="50"/>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="52"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="12" t="s">
         <v>83</v>
       </c>
@@ -6220,14 +5479,14 @@
         <v>212</v>
       </c>
       <c r="F45" s="9"/>
-      <c r="G45" s="73" t="s">
+      <c r="G45" s="43" t="s">
         <v>233</v>
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="51"/>
-      <c r="C46" s="50"/>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="52"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="12" t="s">
         <v>82</v>
       </c>
@@ -6240,9 +5499,9 @@
       </c>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="51"/>
-      <c r="C47" s="50"/>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="52"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="12" t="s">
         <v>81</v>
       </c>
@@ -6250,12 +5509,12 @@
         <v>208</v>
       </c>
       <c r="F47" s="9"/>
-      <c r="G47" s="73"/>
+      <c r="G47" s="43"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="51"/>
-      <c r="C48" s="50"/>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="52"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="12" t="s">
         <v>80</v>
       </c>
@@ -6268,9 +5527,9 @@
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="51"/>
-      <c r="C49" s="50"/>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" s="52"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="12" t="s">
         <v>79</v>
       </c>
@@ -6283,9 +5542,9 @@
       </c>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="51"/>
-      <c r="C50" s="50"/>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" s="52"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="12" t="s">
         <v>78</v>
       </c>
@@ -6293,21 +5552,21 @@
         <v>208</v>
       </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="73"/>
+      <c r="G50" s="43"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="51"/>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" s="52"/>
       <c r="C51" s="38"/>
       <c r="D51" s="12"/>
       <c r="E51" s="10"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="73"/>
+      <c r="G51" s="43"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="51"/>
-      <c r="C52" s="50" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="52"/>
+      <c r="C52" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D52" s="12" t="s">
@@ -6320,11 +5579,11 @@
       <c r="G52" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="51"/>
-      <c r="C53" s="50"/>
+      <c r="H52" s="75"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="52"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="12" t="s">
         <v>76</v>
       </c>
@@ -6335,11 +5594,11 @@
       <c r="G53" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="51"/>
-      <c r="C54" s="50"/>
+      <c r="H53" s="75"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" s="52"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="12" t="s">
         <v>75</v>
       </c>
@@ -6350,11 +5609,11 @@
       <c r="G54" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="51"/>
-      <c r="C55" s="50"/>
+      <c r="H54" s="74"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="52"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="12" t="s">
         <v>74</v>
       </c>
@@ -6365,11 +5624,11 @@
       <c r="G55" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="51"/>
-      <c r="C56" s="50"/>
+      <c r="H55" s="74"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" s="52"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="12" t="s">
         <v>73</v>
       </c>
@@ -6380,11 +5639,11 @@
       <c r="G56" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="51"/>
-      <c r="C57" s="50"/>
+      <c r="H56" s="75"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B57" s="52"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="12" t="s">
         <v>72</v>
       </c>
@@ -6395,11 +5654,11 @@
       <c r="G57" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="51"/>
-      <c r="C58" s="50"/>
+      <c r="H57" s="75"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" s="52"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="12" t="s">
         <v>71</v>
       </c>
@@ -6412,9 +5671,9 @@
       </c>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="51"/>
-      <c r="C59" s="50"/>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59" s="52"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="12" t="s">
         <v>70</v>
       </c>
@@ -6422,14 +5681,14 @@
         <v>212</v>
       </c>
       <c r="F59" s="9"/>
-      <c r="G59" s="73" t="s">
+      <c r="G59" s="43" t="s">
         <v>232</v>
       </c>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="51"/>
-      <c r="C60" s="50"/>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="52"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="12" t="s">
         <v>69</v>
       </c>
@@ -6437,14 +5696,14 @@
         <v>212</v>
       </c>
       <c r="F60" s="9"/>
-      <c r="G60" s="73" t="s">
+      <c r="G60" s="43" t="s">
         <v>232</v>
       </c>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="51"/>
-      <c r="C61" s="50"/>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B61" s="52"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="12" t="s">
         <v>68</v>
       </c>
@@ -6452,14 +5711,14 @@
         <v>212</v>
       </c>
       <c r="F61" s="9"/>
-      <c r="G61" s="73" t="s">
+      <c r="G61" s="43" t="s">
         <v>233</v>
       </c>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="51"/>
-      <c r="C62" s="50"/>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62" s="52"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="12" t="s">
         <v>67</v>
       </c>
@@ -6472,9 +5731,9 @@
       </c>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="51"/>
-      <c r="C63" s="50"/>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63" s="52"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="12" t="s">
         <v>66</v>
       </c>
@@ -6487,9 +5746,9 @@
       </c>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="51"/>
-      <c r="C64" s="50"/>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" s="52"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="12" t="s">
         <v>65</v>
       </c>
@@ -6497,21 +5756,21 @@
         <v>208</v>
       </c>
       <c r="F64" s="9"/>
-      <c r="G64" s="73"/>
+      <c r="G64" s="43"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="51"/>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B65" s="52"/>
       <c r="C65" s="38"/>
       <c r="D65" s="12"/>
       <c r="E65" s="10"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="73"/>
+      <c r="G65" s="43"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="51"/>
-      <c r="C66" s="50" t="s">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B66" s="52"/>
+      <c r="C66" s="51" t="s">
         <v>205</v>
       </c>
       <c r="D66" s="12" t="s">
@@ -6524,11 +5783,11 @@
       <c r="G66" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="51"/>
-      <c r="C67" s="50"/>
+      <c r="H66" s="75"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B67" s="52"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="12" t="s">
         <v>230</v>
       </c>
@@ -6539,11 +5798,11 @@
       <c r="G67" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="51"/>
-      <c r="C68" s="50"/>
+      <c r="H67" s="75"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B68" s="52"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="12" t="s">
         <v>63</v>
       </c>
@@ -6554,11 +5813,11 @@
       <c r="G68" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="51"/>
-      <c r="C69" s="50"/>
+      <c r="H68" s="75"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B69" s="52"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="12" t="s">
         <v>62</v>
       </c>
@@ -6569,11 +5828,11 @@
       <c r="G69" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="51"/>
-      <c r="C70" s="50"/>
+      <c r="H69" s="75"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B70" s="52"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="12" t="s">
         <v>61</v>
       </c>
@@ -6584,11 +5843,11 @@
       <c r="G70" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="51"/>
-      <c r="C71" s="50"/>
+      <c r="H70" s="75"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B71" s="52"/>
+      <c r="C71" s="51"/>
       <c r="D71" s="12" t="s">
         <v>60</v>
       </c>
@@ -6601,9 +5860,9 @@
       </c>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="51"/>
-      <c r="C72" s="50"/>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B72" s="52"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="12" t="s">
         <v>59</v>
       </c>
@@ -6611,14 +5870,14 @@
         <v>212</v>
       </c>
       <c r="F72" s="9"/>
-      <c r="G72" s="73" t="s">
+      <c r="G72" s="43" t="s">
         <v>232</v>
       </c>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="51"/>
-      <c r="C73" s="50"/>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B73" s="52"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="12" t="s">
         <v>58</v>
       </c>
@@ -6626,14 +5885,14 @@
         <v>212</v>
       </c>
       <c r="F73" s="9"/>
-      <c r="G73" s="73" t="s">
+      <c r="G73" s="43" t="s">
         <v>232</v>
       </c>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="51"/>
-      <c r="C74" s="50"/>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B74" s="52"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="12" t="s">
         <v>57</v>
       </c>
@@ -6641,14 +5900,14 @@
         <v>212</v>
       </c>
       <c r="F74" s="9"/>
-      <c r="G74" s="73" t="s">
+      <c r="G74" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="51"/>
-      <c r="C75" s="50"/>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B75" s="52"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="12" t="s">
         <v>56</v>
       </c>
@@ -6656,14 +5915,14 @@
         <v>212</v>
       </c>
       <c r="F75" s="9"/>
-      <c r="G75" s="73" t="s">
+      <c r="G75" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="51"/>
-      <c r="C76" s="50"/>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B76" s="52"/>
+      <c r="C76" s="51"/>
       <c r="D76" s="12" t="s">
         <v>55</v>
       </c>
@@ -6676,9 +5935,9 @@
       </c>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="51"/>
-      <c r="C77" s="50"/>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B77" s="52"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="12" t="s">
         <v>54</v>
       </c>
@@ -6691,9 +5950,9 @@
       </c>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="51"/>
-      <c r="C78" s="50"/>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B78" s="52"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="12" t="s">
         <v>53</v>
       </c>
@@ -6706,9 +5965,9 @@
       </c>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="51"/>
-      <c r="C79" s="50"/>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B79" s="52"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="12" t="s">
         <v>52</v>
       </c>
@@ -6716,131 +5975,131 @@
         <v>208</v>
       </c>
       <c r="F79" s="9"/>
-      <c r="G79" s="73"/>
+      <c r="G79" s="43"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="51"/>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B80" s="52"/>
       <c r="C80" s="38"/>
       <c r="D80" s="12"/>
       <c r="E80" s="10"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="73"/>
+      <c r="G80" s="43"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="51"/>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B81" s="52"/>
       <c r="C81" s="38"/>
       <c r="D81" s="12"/>
       <c r="E81" s="10"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="73"/>
+      <c r="G81" s="43"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="51"/>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B82" s="52"/>
       <c r="C82" s="38"/>
       <c r="D82" s="12"/>
       <c r="E82" s="10"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="73"/>
+      <c r="G82" s="43"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="51"/>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B83" s="52"/>
       <c r="C83" s="38"/>
       <c r="D83" s="12"/>
       <c r="E83" s="10"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="73"/>
+      <c r="G83" s="43"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="51"/>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B84" s="52"/>
       <c r="C84" s="38"/>
       <c r="D84" s="12"/>
       <c r="E84" s="10"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="73"/>
+      <c r="G84" s="43"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="51"/>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B85" s="52"/>
       <c r="C85" s="38"/>
       <c r="D85" s="12"/>
       <c r="E85" s="10"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="73"/>
+      <c r="G85" s="43"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="51"/>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B86" s="52"/>
       <c r="C86" s="38"/>
       <c r="D86" s="12"/>
       <c r="E86" s="10"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="73"/>
+      <c r="G86" s="43"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="51"/>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B87" s="52"/>
       <c r="C87" s="38"/>
       <c r="D87" s="12"/>
       <c r="E87" s="10"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="73"/>
+      <c r="G87" s="43"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="51"/>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B88" s="52"/>
       <c r="C88" s="38"/>
       <c r="D88" s="12"/>
       <c r="E88" s="10"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="73"/>
+      <c r="G88" s="43"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="51"/>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B89" s="52"/>
       <c r="C89" s="38"/>
       <c r="D89" s="12"/>
       <c r="E89" s="10"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="73"/>
+      <c r="G89" s="43"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="51"/>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B90" s="52"/>
       <c r="C90" s="38"/>
       <c r="D90" s="12"/>
       <c r="E90" s="10"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="73"/>
+      <c r="G90" s="43"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="51"/>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B91" s="52"/>
       <c r="C91" s="38"/>
       <c r="D91" s="12"/>
       <c r="E91" s="10"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="73"/>
+      <c r="G91" s="43"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="51"/>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B92" s="52"/>
       <c r="C92" s="38"/>
       <c r="D92" s="12"/>
       <c r="E92" s="10"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="73"/>
+      <c r="G92" s="43"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="51" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B93" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C93" s="51" t="s">
         <v>207</v>
       </c>
       <c r="D93" s="12" t="s">
@@ -6855,9 +6114,9 @@
       </c>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="51"/>
-      <c r="C94" s="50"/>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B94" s="52"/>
+      <c r="C94" s="51"/>
       <c r="D94" s="12" t="s">
         <v>50</v>
       </c>
@@ -6870,9 +6129,9 @@
       </c>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="51"/>
-      <c r="C95" s="50"/>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B95" s="52"/>
+      <c r="C95" s="51"/>
       <c r="D95" s="12" t="s">
         <v>49</v>
       </c>
@@ -6885,9 +6144,9 @@
       </c>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="51"/>
-      <c r="C96" s="50"/>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B96" s="52"/>
+      <c r="C96" s="51"/>
       <c r="D96" s="12" t="s">
         <v>48</v>
       </c>
@@ -6900,9 +6159,9 @@
       </c>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="51"/>
-      <c r="C97" s="50"/>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B97" s="52"/>
+      <c r="C97" s="51"/>
       <c r="D97" s="12" t="s">
         <v>47</v>
       </c>
@@ -6915,9 +6174,9 @@
       </c>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="51"/>
-      <c r="C98" s="50"/>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B98" s="52"/>
+      <c r="C98" s="51"/>
       <c r="D98" s="12" t="s">
         <v>46</v>
       </c>
@@ -6930,9 +6189,9 @@
       </c>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="51"/>
-      <c r="C99" s="50"/>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B99" s="52"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="12" t="s">
         <v>45</v>
       </c>
@@ -6945,9 +6204,9 @@
       </c>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="51"/>
-      <c r="C100" s="50"/>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B100" s="52"/>
+      <c r="C100" s="51"/>
       <c r="D100" s="12" t="s">
         <v>44</v>
       </c>
@@ -6960,9 +6219,9 @@
       </c>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="51"/>
-      <c r="C101" s="50"/>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B101" s="52"/>
+      <c r="C101" s="51"/>
       <c r="D101" s="12" t="s">
         <v>43</v>
       </c>
@@ -6970,14 +6229,14 @@
         <v>212</v>
       </c>
       <c r="F101" s="9"/>
-      <c r="G101" s="73" t="s">
+      <c r="G101" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="51"/>
-      <c r="C102" s="50"/>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B102" s="52"/>
+      <c r="C102" s="51"/>
       <c r="D102" s="12" t="s">
         <v>42</v>
       </c>
@@ -6985,14 +6244,14 @@
         <v>212</v>
       </c>
       <c r="F102" s="9"/>
-      <c r="G102" s="73" t="s">
+      <c r="G102" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="51"/>
-      <c r="C103" s="50"/>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B103" s="52"/>
+      <c r="C103" s="51"/>
       <c r="D103" s="12" t="s">
         <v>41</v>
       </c>
@@ -7000,14 +6259,14 @@
         <v>212</v>
       </c>
       <c r="F103" s="9"/>
-      <c r="G103" s="73" t="s">
+      <c r="G103" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B104" s="51"/>
-      <c r="C104" s="50"/>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B104" s="52"/>
+      <c r="C104" s="51"/>
       <c r="D104" s="12" t="s">
         <v>40</v>
       </c>
@@ -7015,14 +6274,14 @@
         <v>212</v>
       </c>
       <c r="F104" s="9"/>
-      <c r="G104" s="73" t="s">
+      <c r="G104" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B105" s="51"/>
-      <c r="C105" s="50"/>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B105" s="52"/>
+      <c r="C105" s="51"/>
       <c r="D105" s="12" t="s">
         <v>39</v>
       </c>
@@ -7035,9 +6294,9 @@
       </c>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="51"/>
-      <c r="C106" s="50"/>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B106" s="52"/>
+      <c r="C106" s="51"/>
       <c r="D106" s="12" t="s">
         <v>38</v>
       </c>
@@ -7050,9 +6309,9 @@
       </c>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B107" s="51"/>
-      <c r="C107" s="50"/>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B107" s="52"/>
+      <c r="C107" s="51"/>
       <c r="D107" s="12" t="s">
         <v>37</v>
       </c>
@@ -7060,21 +6319,21 @@
         <v>208</v>
       </c>
       <c r="F107" s="9"/>
-      <c r="G107" s="73"/>
+      <c r="G107" s="43"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B108" s="51"/>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B108" s="52"/>
       <c r="C108" s="39"/>
       <c r="D108" s="12"/>
       <c r="E108" s="10"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="73"/>
+      <c r="G108" s="43"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="2:8" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="51"/>
-      <c r="C109" s="50" t="s">
+    <row r="109" spans="2:8" s="3" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="52"/>
+      <c r="C109" s="51" t="s">
         <v>36</v>
       </c>
       <c r="D109" s="15" t="s">
@@ -7089,9 +6348,9 @@
       </c>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="51"/>
-      <c r="C110" s="50"/>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B110" s="52"/>
+      <c r="C110" s="51"/>
       <c r="D110" s="14" t="s">
         <v>34</v>
       </c>
@@ -7104,9 +6363,9 @@
       </c>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="51"/>
-      <c r="C111" s="50"/>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B111" s="52"/>
+      <c r="C111" s="51"/>
       <c r="D111" s="15" t="s">
         <v>33</v>
       </c>
@@ -7119,18 +6378,18 @@
       </c>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="51"/>
-      <c r="C112" s="50"/>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B112" s="52"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="9"/>
       <c r="E112" s="10"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="73"/>
+      <c r="G112" s="43"/>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="51"/>
-      <c r="C113" s="50"/>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B113" s="52"/>
+      <c r="C113" s="51"/>
       <c r="D113" s="14" t="s">
         <v>32</v>
       </c>
@@ -7143,9 +6402,9 @@
       </c>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="51"/>
-      <c r="C114" s="50"/>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B114" s="52"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="14" t="s">
         <v>31</v>
       </c>
@@ -7158,18 +6417,18 @@
       </c>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="51"/>
-      <c r="C115" s="50"/>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B115" s="52"/>
+      <c r="C115" s="51"/>
       <c r="D115" s="14"/>
       <c r="E115" s="10"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="73"/>
+      <c r="G115" s="43"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="51"/>
-      <c r="C116" s="50"/>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B116" s="52"/>
+      <c r="C116" s="51"/>
       <c r="D116" s="12" t="s">
         <v>30</v>
       </c>
@@ -7182,9 +6441,9 @@
       </c>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="2:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B117" s="51"/>
-      <c r="C117" s="50"/>
+    <row r="117" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B117" s="52"/>
+      <c r="C117" s="51"/>
       <c r="D117" s="12" t="s">
         <v>29</v>
       </c>
@@ -7197,9 +6456,9 @@
       </c>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="51"/>
-      <c r="C118" s="50"/>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B118" s="52"/>
+      <c r="C118" s="51"/>
       <c r="D118" s="12" t="s">
         <v>28</v>
       </c>
@@ -7212,9 +6471,9 @@
       </c>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="2:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B119" s="51"/>
-      <c r="C119" s="50"/>
+    <row r="119" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B119" s="52"/>
+      <c r="C119" s="51"/>
       <c r="D119" s="12" t="s">
         <v>27</v>
       </c>
@@ -7227,9 +6486,9 @@
       </c>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="2:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B120" s="51"/>
-      <c r="C120" s="50"/>
+    <row r="120" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B120" s="52"/>
+      <c r="C120" s="51"/>
       <c r="D120" s="12" t="s">
         <v>26</v>
       </c>
@@ -7242,18 +6501,18 @@
       </c>
       <c r="H120" s="9"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="51"/>
-      <c r="C121" s="50"/>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B121" s="52"/>
+      <c r="C121" s="51"/>
       <c r="D121" s="12"/>
       <c r="E121" s="10"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="73"/>
+      <c r="G121" s="43"/>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" spans="2:8" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B122" s="51"/>
-      <c r="C122" s="50"/>
+    <row r="122" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B122" s="52"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="12" t="s">
         <v>25</v>
       </c>
@@ -7266,9 +6525,9 @@
       </c>
       <c r="H122" s="9"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="51"/>
-      <c r="C123" s="50"/>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B123" s="52"/>
+      <c r="C123" s="51"/>
       <c r="D123" s="12" t="s">
         <v>24</v>
       </c>
@@ -7281,74 +6540,74 @@
       </c>
       <c r="H123" s="9"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="51"/>
-      <c r="C124" s="50"/>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B124" s="52"/>
+      <c r="C124" s="51"/>
       <c r="D124" s="12"/>
       <c r="E124" s="10"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="73"/>
+      <c r="G124" s="43"/>
       <c r="H124" s="9"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="51"/>
-      <c r="C125" s="50"/>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B125" s="52"/>
+      <c r="C125" s="51"/>
       <c r="D125" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F125" s="9"/>
-      <c r="G125" s="73" t="s">
+      <c r="G125" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H125" s="9"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="51"/>
-      <c r="C126" s="50"/>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B126" s="52"/>
+      <c r="C126" s="51"/>
       <c r="D126" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F126" s="9"/>
-      <c r="G126" s="73" t="s">
+      <c r="G126" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H126" s="9"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="51"/>
-      <c r="C127" s="50"/>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B127" s="52"/>
+      <c r="C127" s="51"/>
       <c r="D127" s="9"/>
       <c r="E127" s="10"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="73"/>
+      <c r="G127" s="43"/>
       <c r="H127" s="9"/>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="51"/>
-      <c r="C128" s="50"/>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B128" s="52"/>
+      <c r="C128" s="51"/>
       <c r="D128" s="9"/>
       <c r="E128" s="10"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="73"/>
+      <c r="G128" s="43"/>
       <c r="H128" s="9"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="51"/>
-      <c r="C129" s="50"/>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B129" s="52"/>
+      <c r="C129" s="51"/>
       <c r="E129" s="10"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="73"/>
+      <c r="G129" s="43"/>
       <c r="H129" s="9"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="51"/>
-      <c r="C130" s="50"/>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B130" s="52"/>
+      <c r="C130" s="51"/>
       <c r="D130" s="12" t="s">
         <v>21</v>
       </c>
@@ -7356,14 +6615,14 @@
         <v>212</v>
       </c>
       <c r="F130" s="9"/>
-      <c r="G130" s="73" t="s">
+      <c r="G130" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H130" s="9"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="51"/>
-      <c r="C131" s="50"/>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B131" s="52"/>
+      <c r="C131" s="51"/>
       <c r="D131" s="12" t="s">
         <v>20</v>
       </c>
@@ -7371,14 +6630,14 @@
         <v>212</v>
       </c>
       <c r="F131" s="9"/>
-      <c r="G131" s="73" t="s">
+      <c r="G131" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H131" s="9"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="51"/>
-      <c r="C132" s="50"/>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B132" s="52"/>
+      <c r="C132" s="51"/>
       <c r="D132" s="12" t="s">
         <v>19</v>
       </c>
@@ -7386,14 +6645,14 @@
         <v>212</v>
       </c>
       <c r="F132" s="9"/>
-      <c r="G132" s="73" t="s">
+      <c r="G132" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H132" s="9"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="51"/>
-      <c r="C133" s="50"/>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B133" s="52"/>
+      <c r="C133" s="51"/>
       <c r="D133" s="12" t="s">
         <v>18</v>
       </c>
@@ -7401,14 +6660,14 @@
         <v>212</v>
       </c>
       <c r="F133" s="9"/>
-      <c r="G133" s="73" t="s">
+      <c r="G133" s="43" t="s">
         <v>233</v>
       </c>
       <c r="H133" s="9"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="51"/>
-      <c r="C134" s="50"/>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B134" s="52"/>
+      <c r="C134" s="51"/>
       <c r="D134" s="12" t="s">
         <v>17</v>
       </c>
@@ -7416,14 +6675,14 @@
         <v>212</v>
       </c>
       <c r="F134" s="9"/>
-      <c r="G134" s="73" t="s">
+      <c r="G134" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H134" s="9"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="51"/>
-      <c r="C135" s="50"/>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B135" s="52"/>
+      <c r="C135" s="51"/>
       <c r="D135" s="12" t="s">
         <v>16</v>
       </c>
@@ -7431,14 +6690,14 @@
         <v>212</v>
       </c>
       <c r="F135" s="9"/>
-      <c r="G135" s="73" t="s">
+      <c r="G135" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H135" s="9"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="51"/>
-      <c r="C136" s="50"/>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B136" s="52"/>
+      <c r="C136" s="51"/>
       <c r="D136" s="12" t="s">
         <v>15</v>
       </c>
@@ -7446,14 +6705,14 @@
         <v>212</v>
       </c>
       <c r="F136" s="9"/>
-      <c r="G136" s="73" t="s">
+      <c r="G136" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H136" s="9"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="51"/>
-      <c r="C137" s="50"/>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B137" s="52"/>
+      <c r="C137" s="51"/>
       <c r="D137" s="12" t="s">
         <v>14</v>
       </c>
@@ -7461,32 +6720,32 @@
         <v>212</v>
       </c>
       <c r="F137" s="9"/>
-      <c r="G137" s="73" t="s">
+      <c r="G137" s="43" t="s">
         <v>233</v>
       </c>
       <c r="H137" s="9"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="51"/>
-      <c r="C138" s="50"/>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B138" s="52"/>
+      <c r="C138" s="51"/>
       <c r="D138" s="12"/>
       <c r="E138" s="10"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="73"/>
+      <c r="G138" s="43"/>
       <c r="H138" s="9"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="51"/>
-      <c r="C139" s="50"/>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B139" s="52"/>
+      <c r="C139" s="51"/>
       <c r="D139" s="9"/>
       <c r="E139" s="10"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="73"/>
+      <c r="G139" s="43"/>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="51"/>
-      <c r="C140" s="47" t="s">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B140" s="52"/>
+      <c r="C140" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="9" t="s">
@@ -7501,9 +6760,9 @@
       </c>
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" s="51"/>
-      <c r="C141" s="48"/>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B141" s="52"/>
+      <c r="C141" s="49"/>
       <c r="D141" s="9" t="s">
         <v>11</v>
       </c>
@@ -7516,9 +6775,9 @@
       </c>
       <c r="H141" s="9"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B142" s="51"/>
-      <c r="C142" s="48"/>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B142" s="52"/>
+      <c r="C142" s="49"/>
       <c r="D142" s="9" t="s">
         <v>10</v>
       </c>
@@ -7531,9 +6790,9 @@
       </c>
       <c r="H142" s="9"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="51"/>
-      <c r="C143" s="48"/>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B143" s="52"/>
+      <c r="C143" s="49"/>
       <c r="D143" s="9" t="s">
         <v>9</v>
       </c>
@@ -7541,14 +6800,14 @@
         <v>212</v>
       </c>
       <c r="F143" s="9"/>
-      <c r="G143" s="73" t="s">
+      <c r="G143" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H143" s="9"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="51"/>
-      <c r="C144" s="48"/>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B144" s="52"/>
+      <c r="C144" s="49"/>
       <c r="D144" s="9" t="s">
         <v>234</v>
       </c>
@@ -7556,14 +6815,14 @@
         <v>208</v>
       </c>
       <c r="F144" s="9"/>
-      <c r="G144" s="73" t="s">
+      <c r="G144" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H144" s="9"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B145" s="51"/>
-      <c r="C145" s="48"/>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B145" s="52"/>
+      <c r="C145" s="49"/>
       <c r="D145" s="9" t="s">
         <v>8</v>
       </c>
@@ -7571,14 +6830,14 @@
         <v>212</v>
       </c>
       <c r="F145" s="9"/>
-      <c r="G145" s="73" t="s">
+      <c r="G145" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H145" s="9"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" s="51"/>
-      <c r="C146" s="48"/>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B146" s="52"/>
+      <c r="C146" s="49"/>
       <c r="D146" s="9" t="s">
         <v>7</v>
       </c>
@@ -7586,14 +6845,14 @@
         <v>212</v>
       </c>
       <c r="F146" s="9"/>
-      <c r="G146" s="73" t="s">
+      <c r="G146" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H146" s="9"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B147" s="51"/>
-      <c r="C147" s="48"/>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B147" s="52"/>
+      <c r="C147" s="49"/>
       <c r="D147" s="9" t="s">
         <v>6</v>
       </c>
@@ -7601,58 +6860,58 @@
         <v>212</v>
       </c>
       <c r="F147" s="9"/>
-      <c r="G147" s="73" t="s">
+      <c r="G147" s="43" t="s">
         <v>233</v>
       </c>
       <c r="H147" s="9"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B148" s="51"/>
-      <c r="C148" s="48"/>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B148" s="52"/>
+      <c r="C148" s="49"/>
       <c r="E148" s="10"/>
       <c r="F148" s="9"/>
-      <c r="G148" s="73"/>
+      <c r="G148" s="43"/>
       <c r="H148" s="9"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B149" s="51"/>
-      <c r="C149" s="48"/>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B149" s="52"/>
+      <c r="C149" s="49"/>
       <c r="D149" s="9"/>
       <c r="E149" s="10"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="73"/>
+      <c r="G149" s="43"/>
       <c r="H149" s="9"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B150" s="51"/>
-      <c r="C150" s="48"/>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B150" s="52"/>
+      <c r="C150" s="49"/>
       <c r="D150" s="9"/>
       <c r="E150" s="10"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="73"/>
+      <c r="G150" s="43"/>
       <c r="H150" s="9"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B151" s="51"/>
-      <c r="C151" s="48"/>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B151" s="52"/>
+      <c r="C151" s="49"/>
       <c r="D151" s="9"/>
       <c r="E151" s="10"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="73"/>
+      <c r="G151" s="43"/>
       <c r="H151" s="9"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B152" s="51"/>
-      <c r="C152" s="49"/>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B152" s="52"/>
+      <c r="C152" s="50"/>
       <c r="D152" s="9"/>
       <c r="E152" s="10"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="73"/>
+      <c r="G152" s="43"/>
       <c r="H152" s="9"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" s="51"/>
-      <c r="C153" s="47" t="s">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B153" s="52"/>
+      <c r="C153" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="9" t="s">
@@ -7667,9 +6926,9 @@
       </c>
       <c r="H153" s="9"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B154" s="51"/>
-      <c r="C154" s="48"/>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B154" s="52"/>
+      <c r="C154" s="49"/>
       <c r="D154" s="9" t="s">
         <v>196</v>
       </c>
@@ -7680,9 +6939,9 @@
       <c r="G154" s="42"/>
       <c r="H154" s="9"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B155" s="51"/>
-      <c r="C155" s="48"/>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B155" s="52"/>
+      <c r="C155" s="49"/>
       <c r="D155" s="9" t="s">
         <v>197</v>
       </c>
@@ -7693,9 +6952,9 @@
       <c r="G155" s="42"/>
       <c r="H155" s="9"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B156" s="51"/>
-      <c r="C156" s="48"/>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B156" s="52"/>
+      <c r="C156" s="49"/>
       <c r="D156" s="12" t="s">
         <v>198</v>
       </c>
@@ -7703,12 +6962,12 @@
         <v>208</v>
       </c>
       <c r="F156" s="9"/>
-      <c r="G156" s="73"/>
+      <c r="G156" s="43"/>
       <c r="H156" s="9"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B157" s="51"/>
-      <c r="C157" s="48"/>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B157" s="52"/>
+      <c r="C157" s="49"/>
       <c r="D157" s="12" t="s">
         <v>199</v>
       </c>
@@ -7716,14 +6975,14 @@
         <v>212</v>
       </c>
       <c r="F157" s="9"/>
-      <c r="G157" s="73" t="s">
+      <c r="G157" s="43" t="s">
         <v>233</v>
       </c>
       <c r="H157" s="9"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B158" s="51"/>
-      <c r="C158" s="48"/>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B158" s="52"/>
+      <c r="C158" s="49"/>
       <c r="D158" s="12" t="s">
         <v>4</v>
       </c>
@@ -7736,9 +6995,9 @@
       </c>
       <c r="H158" s="9"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B159" s="51"/>
-      <c r="C159" s="48"/>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B159" s="52"/>
+      <c r="C159" s="49"/>
       <c r="D159" s="12" t="s">
         <v>3</v>
       </c>
@@ -7751,9 +7010,9 @@
       </c>
       <c r="H159" s="9"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B160" s="51"/>
-      <c r="C160" s="48"/>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B160" s="52"/>
+      <c r="C160" s="49"/>
       <c r="D160" s="12" t="s">
         <v>201</v>
       </c>
@@ -7766,9 +7025,9 @@
       </c>
       <c r="H160" s="9"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B161" s="51"/>
-      <c r="C161" s="48"/>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B161" s="52"/>
+      <c r="C161" s="49"/>
       <c r="D161" s="12" t="s">
         <v>2</v>
       </c>
@@ -7781,9 +7040,9 @@
       </c>
       <c r="H161" s="9"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B162" s="51"/>
-      <c r="C162" s="48"/>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B162" s="52"/>
+      <c r="C162" s="49"/>
       <c r="D162" s="13" t="s">
         <v>1</v>
       </c>
@@ -7796,9 +7055,9 @@
       </c>
       <c r="H162" s="9"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B163" s="51"/>
-      <c r="C163" s="48"/>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B163" s="52"/>
+      <c r="C163" s="49"/>
       <c r="D163" s="13" t="s">
         <v>0</v>
       </c>
@@ -7806,66 +7065,66 @@
         <v>212</v>
       </c>
       <c r="F163" s="9"/>
-      <c r="G163" s="73" t="s">
+      <c r="G163" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H163" s="9"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B164" s="51"/>
-      <c r="C164" s="48"/>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B164" s="52"/>
+      <c r="C164" s="49"/>
       <c r="D164" s="13"/>
       <c r="E164" s="10"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="73"/>
+      <c r="G164" s="43"/>
       <c r="H164" s="9"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B165" s="51"/>
-      <c r="C165" s="49"/>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B165" s="52"/>
+      <c r="C165" s="50"/>
       <c r="D165" s="12"/>
       <c r="E165" s="10"/>
       <c r="F165" s="9"/>
-      <c r="G165" s="73"/>
+      <c r="G165" s="43"/>
       <c r="H165" s="9"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B166" s="51"/>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B166" s="52"/>
       <c r="C166" s="11"/>
       <c r="D166" s="12"/>
       <c r="E166" s="10"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="73"/>
+      <c r="G166" s="43"/>
       <c r="H166" s="9"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B167" s="51"/>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B167" s="52"/>
       <c r="C167" s="11"/>
       <c r="D167" s="12"/>
       <c r="E167" s="10"/>
       <c r="F167" s="9"/>
-      <c r="G167" s="73"/>
+      <c r="G167" s="43"/>
       <c r="H167" s="9"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B168" s="51"/>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B168" s="52"/>
       <c r="C168" s="11"/>
       <c r="D168" s="12"/>
       <c r="E168" s="10"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="73"/>
+      <c r="G168" s="43"/>
       <c r="H168" s="9"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B169" s="51"/>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B169" s="52"/>
       <c r="C169" s="11"/>
       <c r="D169" s="9"/>
       <c r="E169" s="10"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="73"/>
+      <c r="G169" s="43"/>
       <c r="H169" s="9"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B170" s="8"/>
       <c r="C170" s="7"/>
       <c r="D170" s="5"/>
@@ -7873,7 +7132,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="8"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D171" s="4"/>
     </row>
   </sheetData>
@@ -7919,8 +7178,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="8" operator="containsText" id="{892F53C3-1888-4770-B537-D639D109D5B2}">
-            <xm:f>NOT(ISERROR(SEARCH('[01-タスク.xlsx]ドロップダウンリスト'!#REF!,E1)))</xm:f>
-            <xm:f>'[01-タスク.xlsx]ドロップダウンリスト'!#REF!</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('\Users\yuuya\Desktop\Koshi2t\[01-タスク.xlsx]ドロップダウンリスト'!#REF!,E1)))</xm:f>
+            <xm:f>'\Users\yuuya\Desktop\Koshi2t\[01-タスク.xlsx]ドロップダウンリスト'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -7943,7 +7202,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A93:C93 A1:C4 A170:C1048576 A94:A169 C36:C37 C51:C52 C65:C66 C80:C92 C108:C169 A5:A92 E1:XFD1048576 C5:C34</xm:sqref>
+          <xm:sqref>A93:C93 A1:C4 A170:C1048576 A94:A169 C36:C37 C51:C52 C65:C66 C80:C92 C108:C169 A5:A92 C5:C34 E1:XFD1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{849A3F7F-34A8-472C-A209-AE878E27D45A}">
@@ -8038,35 +7297,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
       <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="83.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.77734375" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" customWidth="1"/>
-    <col min="9" max="9" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="1.5" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="36" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="83.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.75" customWidth="1"/>
+    <col min="8" max="8" width="5.75" customWidth="1"/>
+    <col min="9" max="9" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="27"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
@@ -8099,7 +7358,7 @@
       <c r="AL1" s="24"/>
       <c r="AM1" s="24"/>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -8140,7 +7399,7 @@
       <c r="AL2" s="24"/>
       <c r="AM2" s="24"/>
     </row>
-    <row r="3" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="23" t="s">
         <v>123</v>
       </c>
@@ -8194,7 +7453,7 @@
       <c r="AL3" s="18"/>
       <c r="AM3" s="18"/>
     </row>
-    <row r="4" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="70" t="s">
         <v>156</v>
@@ -8247,7 +7506,7 @@
       <c r="AL4" s="18"/>
       <c r="AM4" s="18"/>
     </row>
-    <row r="5" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="71"/>
       <c r="C5" s="65"/>
@@ -8294,7 +7553,7 @@
       <c r="AL5" s="18"/>
       <c r="AM5" s="18"/>
     </row>
-    <row r="6" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
       <c r="B6" s="71"/>
       <c r="C6" s="65"/>
@@ -8341,7 +7600,7 @@
       <c r="AL6" s="18"/>
       <c r="AM6" s="18"/>
     </row>
-    <row r="7" spans="1:39" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="17" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32"/>
       <c r="B7" s="71"/>
       <c r="C7" s="65"/>
@@ -8386,7 +7645,7 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
     </row>
-    <row r="8" spans="1:39" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="17" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32"/>
       <c r="B8" s="71"/>
       <c r="C8" s="65"/>
@@ -8431,7 +7690,7 @@
       <c r="AL8" s="18"/>
       <c r="AM8" s="18"/>
     </row>
-    <row r="9" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32"/>
       <c r="B9" s="71"/>
       <c r="C9" s="65"/>
@@ -8478,7 +7737,7 @@
       <c r="AL9" s="18"/>
       <c r="AM9" s="18"/>
     </row>
-    <row r="10" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32"/>
       <c r="B10" s="72"/>
       <c r="C10" s="65"/>
@@ -8525,7 +7784,7 @@
       <c r="AL10" s="18"/>
       <c r="AM10" s="18"/>
     </row>
-    <row r="11" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33"/>
       <c r="B11" s="69" t="s">
         <v>139</v>
@@ -8543,7 +7802,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
       <c r="B12" s="69"/>
       <c r="C12" s="63"/>
@@ -8557,7 +7816,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13" s="33"/>
       <c r="B13" s="69"/>
       <c r="C13" s="64"/>
@@ -8573,7 +7832,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
       <c r="B14" s="69"/>
       <c r="C14" s="62" t="s">
@@ -8589,7 +7848,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15" s="33"/>
       <c r="B15" s="69"/>
       <c r="C15" s="64"/>
@@ -8605,7 +7864,7 @@
       </c>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="33"/>
       <c r="B16" s="69"/>
       <c r="C16" s="62" t="s">
@@ -8621,7 +7880,7 @@
       <c r="G16" s="35"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="33"/>
       <c r="B17" s="69"/>
       <c r="C17" s="63"/>
@@ -8635,7 +7894,7 @@
       <c r="G17" s="35"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="33"/>
       <c r="B18" s="69"/>
       <c r="C18" s="64"/>
@@ -8651,7 +7910,7 @@
       </c>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="33"/>
       <c r="B19" s="69"/>
       <c r="C19" s="66" t="s">
@@ -8667,7 +7926,7 @@
       <c r="G19" s="35"/>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="69"/>
       <c r="C20" s="67"/>
       <c r="D20" s="25" t="s">
@@ -8680,7 +7939,7 @@
       <c r="G20" s="35"/>
       <c r="H20" s="25"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="69"/>
       <c r="C21" s="67"/>
       <c r="D21" s="25" t="s">
@@ -8695,7 +7954,7 @@
       </c>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="69"/>
       <c r="C22" s="67"/>
       <c r="D22" s="26" t="s">
@@ -8708,7 +7967,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="69"/>
       <c r="C23" s="68"/>
       <c r="D23" s="25" t="s">
@@ -8723,9 +7982,9 @@
       </c>
       <c r="H23" s="25"/>
     </row>
-    <row r="24" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="59"/>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="73" t="s">
         <v>153</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -8738,7 +7997,7 @@
       <c r="G24" s="35"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
       <c r="D25" s="25" t="s">
@@ -8751,7 +8010,7 @@
       <c r="G25" s="35"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="59"/>
       <c r="C26" s="60"/>
       <c r="D26" s="25" t="s">
@@ -8766,9 +8025,9 @@
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="59"/>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="56" t="s">
         <v>154</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -8783,9 +8042,9 @@
       </c>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="59"/>
-      <c r="C28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="25" t="s">
         <v>147</v>
       </c>
@@ -8798,9 +8057,9 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="59"/>
-      <c r="C29" s="57"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="25" t="s">
         <v>148</v>
       </c>
@@ -8813,9 +8072,9 @@
       </c>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="59"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="73" t="s">
         <v>155</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -8828,7 +8087,7 @@
       <c r="G30" s="35"/>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
       <c r="D31" s="25" t="s">
@@ -8841,7 +8100,7 @@
       <c r="G31" s="35"/>
       <c r="H31" s="25"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
       <c r="D32" s="25" t="s">
@@ -8856,7 +8115,7 @@
       </c>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
       <c r="D33" t="s">
@@ -8871,7 +8130,7 @@
       </c>
       <c r="H33" s="25"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="60"/>
       <c r="C34" s="60"/>
       <c r="D34" s="25" t="s">
@@ -8886,8 +8145,8 @@
       </c>
       <c r="H34" s="25"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="55" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B35" s="56" t="s">
         <v>157</v>
       </c>
       <c r="C35" s="31"/>
@@ -8903,8 +8162,8 @@
       </c>
       <c r="H35" s="25"/>
     </row>
-    <row r="36" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="56"/>
+    <row r="36" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="57"/>
       <c r="C36" s="31"/>
       <c r="D36" s="25" t="s">
         <v>161</v>
@@ -8916,8 +8175,8 @@
       <c r="G36" s="35"/>
       <c r="H36" s="25"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="56"/>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="57"/>
       <c r="C37" s="31"/>
       <c r="D37" s="26" t="s">
         <v>162</v>
@@ -8931,8 +8190,8 @@
       </c>
       <c r="H37" s="25"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="56"/>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="57"/>
       <c r="C38" s="31"/>
       <c r="D38" s="25" t="s">
         <v>159</v>
@@ -8946,8 +8205,8 @@
       </c>
       <c r="H38" s="25"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="56"/>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="57"/>
       <c r="C39" s="31"/>
       <c r="D39" s="25" t="s">
         <v>160</v>
@@ -8961,8 +8220,8 @@
       </c>
       <c r="H39" s="25"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="56"/>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="57"/>
       <c r="C40" s="31"/>
       <c r="D40" s="25" t="s">
         <v>170</v>
@@ -8976,8 +8235,8 @@
       </c>
       <c r="H40" s="25"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="56"/>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="57"/>
       <c r="C41" s="31"/>
       <c r="D41" s="25" t="s">
         <v>171</v>
@@ -8991,8 +8250,8 @@
       </c>
       <c r="H41" s="25"/>
     </row>
-    <row r="42" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="56"/>
+    <row r="42" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="57"/>
       <c r="C42" s="31"/>
       <c r="D42" s="25"/>
       <c r="E42" s="40"/>
@@ -9000,16 +8259,16 @@
       <c r="G42" s="35"/>
       <c r="H42" s="25"/>
     </row>
-    <row r="43" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="56"/>
+    <row r="43" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="57"/>
       <c r="C43" s="31"/>
       <c r="E43" s="40"/>
       <c r="F43" s="25"/>
       <c r="G43" s="35"/>
       <c r="H43" s="25"/>
     </row>
-    <row r="44" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="57"/>
+    <row r="44" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="58"/>
       <c r="C44" s="31"/>
       <c r="D44" s="25"/>
       <c r="E44" s="40"/>
@@ -9017,7 +8276,7 @@
       <c r="G44" s="35"/>
       <c r="H44" s="25"/>
     </row>
-    <row r="45" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="59"/>
       <c r="C45" s="31"/>
       <c r="D45" s="37" t="s">
@@ -9030,7 +8289,7 @@
       <c r="G45" s="35"/>
       <c r="H45" s="25"/>
     </row>
-    <row r="46" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="59"/>
       <c r="C46" s="31"/>
       <c r="D46" s="37" t="s">
@@ -9043,7 +8302,7 @@
       <c r="G46" s="35"/>
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="59"/>
       <c r="C47" s="31"/>
       <c r="D47" s="25" t="s">
@@ -9056,7 +8315,7 @@
       <c r="G47" s="35"/>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="59"/>
       <c r="C48" s="31"/>
       <c r="D48" s="25" t="s">
@@ -9069,7 +8328,7 @@
       <c r="G48" s="35"/>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="59"/>
       <c r="C49" s="31"/>
       <c r="D49" s="25" t="s">
@@ -9082,7 +8341,7 @@
       <c r="G49" s="35"/>
       <c r="H49" s="25"/>
     </row>
-    <row r="50" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="59"/>
       <c r="C50" s="31"/>
       <c r="D50" s="25" t="s">
@@ -9095,7 +8354,7 @@
       <c r="G50" s="35"/>
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="60"/>
       <c r="C51" s="31"/>
       <c r="D51" s="25"/>
@@ -9104,8 +8363,8 @@
       <c r="G51" s="35"/>
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="55" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="56" t="s">
         <v>172</v>
       </c>
       <c r="C52" s="31"/>
@@ -9121,8 +8380,8 @@
       </c>
       <c r="H52" s="25"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="56"/>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="57"/>
       <c r="C53" s="31"/>
       <c r="D53" s="25" t="s">
         <v>174</v>
@@ -9136,8 +8395,8 @@
       </c>
       <c r="H53" s="25"/>
     </row>
-    <row r="54" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="56"/>
+    <row r="54" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="57"/>
       <c r="C54" s="31"/>
       <c r="D54" s="25" t="s">
         <v>175</v>
@@ -9149,8 +8408,8 @@
       <c r="G54" s="35"/>
       <c r="H54" s="25"/>
     </row>
-    <row r="55" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="56"/>
+    <row r="55" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="57"/>
       <c r="C55" s="31"/>
       <c r="D55" s="25" t="s">
         <v>176</v>
@@ -9162,8 +8421,8 @@
       <c r="G55" s="35"/>
       <c r="H55" s="25"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="56"/>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" s="57"/>
       <c r="C56" s="31"/>
       <c r="D56" s="25" t="s">
         <v>167</v>
@@ -9177,8 +8436,8 @@
       </c>
       <c r="H56" s="25"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="56"/>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B57" s="57"/>
       <c r="C57" s="31"/>
       <c r="D57" s="25" t="s">
         <v>179</v>
@@ -9192,8 +8451,8 @@
       </c>
       <c r="H57" s="25"/>
     </row>
-    <row r="58" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="56"/>
+    <row r="58" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="57"/>
       <c r="C58" s="31"/>
       <c r="D58" s="25" t="s">
         <v>177</v>
@@ -9205,8 +8464,8 @@
       <c r="G58" s="35"/>
       <c r="H58" s="25"/>
     </row>
-    <row r="59" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="56"/>
+    <row r="59" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="57"/>
       <c r="C59" s="31"/>
       <c r="D59" s="25" t="s">
         <v>178</v>
@@ -9218,8 +8477,8 @@
       <c r="G59" s="35"/>
       <c r="H59" s="25"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="56"/>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="57"/>
       <c r="C60" s="31"/>
       <c r="D60" s="25" t="s">
         <v>180</v>
@@ -9233,8 +8492,8 @@
       </c>
       <c r="H60" s="25"/>
     </row>
-    <row r="61" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="57"/>
+    <row r="61" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="58"/>
       <c r="C61" s="31"/>
       <c r="D61" s="25" t="s">
         <v>181</v>
@@ -9246,8 +8505,8 @@
       <c r="G61" s="35"/>
       <c r="H61" s="25"/>
     </row>
-    <row r="62" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="55" t="s">
+    <row r="62" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="56" t="s">
         <v>189</v>
       </c>
       <c r="C62" s="31"/>
@@ -9261,8 +8520,8 @@
       <c r="G62" s="35"/>
       <c r="H62" s="25"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="56"/>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63" s="57"/>
       <c r="C63" s="31"/>
       <c r="D63" s="25" t="s">
         <v>191</v>
@@ -9276,8 +8535,8 @@
       </c>
       <c r="H63" s="25"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="56"/>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" s="57"/>
       <c r="C64" s="31"/>
       <c r="D64" s="25" t="s">
         <v>192</v>
@@ -9291,8 +8550,8 @@
       </c>
       <c r="H64" s="25"/>
     </row>
-    <row r="65" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="56"/>
+    <row r="65" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="57"/>
       <c r="C65" s="31"/>
       <c r="D65" s="25" t="s">
         <v>193</v>
@@ -9304,8 +8563,8 @@
       <c r="G65" s="35"/>
       <c r="H65" s="25"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="56"/>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B66" s="57"/>
       <c r="C66" s="31"/>
       <c r="D66" s="25" t="s">
         <v>194</v>
@@ -9319,8 +8578,8 @@
       </c>
       <c r="H66" s="25"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="57"/>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B67" s="58"/>
       <c r="C67" s="31"/>
       <c r="D67" s="25" t="s">
         <v>224</v>
@@ -9334,7 +8593,7 @@
       </c>
       <c r="H67" s="25"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B68" s="28"/>
       <c r="C68" s="31"/>
       <c r="D68" s="25"/>
@@ -9343,7 +8602,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B69" s="28"/>
       <c r="C69" s="31"/>
       <c r="D69" s="25"/>
@@ -9352,7 +8611,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B70" s="28"/>
       <c r="C70" s="31"/>
       <c r="D70" s="25"/>
@@ -9361,7 +8620,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B71" s="28"/>
       <c r="C71" s="31"/>
       <c r="D71" s="25"/>
@@ -9370,7 +8629,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B72" s="28"/>
       <c r="C72" s="31"/>
       <c r="D72" s="25"/>
@@ -9379,7 +8638,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B73" s="28"/>
       <c r="C73" s="31"/>
       <c r="D73" s="25"/>
@@ -9388,7 +8647,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" s="28"/>
       <c r="C74" s="31"/>
       <c r="D74" s="25"/>
@@ -9397,7 +8656,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B75" s="28"/>
       <c r="C75" s="31"/>
       <c r="D75" s="25"/>
@@ -9406,7 +8665,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B76" s="29"/>
       <c r="C76" s="31"/>
       <c r="D76" s="25"/>
@@ -9443,8 +8702,8 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{FC448865-B6BC-4F3B-B761-6C611DDC98FC}">
-            <xm:f>NOT(ISERROR(SEARCH('[01-タスク.xlsx]ドロップダウンリスト'!#REF!,E3)))</xm:f>
-            <xm:f>'[01-タスク.xlsx]ドロップダウンリスト'!#REF!</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('\Users\yuuya\Desktop\Koshi2t\[01-タスク.xlsx]ドロップダウンリスト'!#REF!,E3)))</xm:f>
+            <xm:f>'\Users\yuuya\Desktop\Koshi2t\[01-タスク.xlsx]ドロップダウンリスト'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9454,8 +8713,8 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{F2A3AA07-3F1F-4A74-8CA7-436988B7F791}">
-            <xm:f>NOT(ISERROR(SEARCH('[01-タスク.xlsx]ドロップダウンリスト'!#REF!,E3)))</xm:f>
-            <xm:f>'[01-タスク.xlsx]ドロップダウンリスト'!#REF!</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('\Users\yuuya\Desktop\Koshi2t\[01-タスク.xlsx]ドロップダウンリスト'!#REF!,E3)))</xm:f>
+            <xm:f>'\Users\yuuya\Desktop\Koshi2t\[01-タスク.xlsx]ドロップダウンリスト'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9468,8 +8727,8 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="beginsWith" priority="10" operator="beginsWith" id="{F4BC0006-5286-46B8-9FFA-E3B11A0CF855}">
-            <xm:f>LEFT(A1,LEN('[01-タスク.xlsx]ドロップダウンリスト'!#REF!))='[01-タスク.xlsx]ドロップダウンリスト'!#REF!</xm:f>
-            <xm:f>'[01-タスク.xlsx]ドロップダウンリスト'!#REF!</xm:f>
+            <xm:f>LEFT(A1,LEN('\Users\yuuya\Desktop\Koshi2t\[01-タスク.xlsx]ドロップダウンリスト'!#REF!))='\Users\yuuya\Desktop\Koshi2t\[01-タスク.xlsx]ドロップダウンリスト'!#REF!</xm:f>
+            <xm:f>'\Users\yuuya\Desktop\Koshi2t\[01-タスク.xlsx]ドロップダウンリスト'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -9610,9 +8869,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>209</v>
       </c>
@@ -9626,7 +8885,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>211</v>
       </c>
@@ -9640,7 +8899,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>213</v>
       </c>
@@ -9654,7 +8913,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>228</v>
       </c>
@@ -9662,7 +8921,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>229</v>
       </c>
@@ -9676,27 +8935,27 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="G15" t="s">
         <v>188</v>
       </c>

--- a/タスク洗い出し.xlsx
+++ b/タスク洗い出し.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="246">
   <si>
     <t>詠唱エフェクト作成</t>
     <rPh sb="0" eb="2">
@@ -3187,7 +3187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3285,8 +3285,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="HG創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3325,6 +3333,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3442,7 +3455,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
@@ -3456,8 +3469,11 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -3560,6 +3576,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3650,159 +3668,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Custom Style  1" xfId="1"/>
     <cellStyle name="Custom Style 2" xfId="2"/>
     <cellStyle name="どちらでもない" xfId="6" builtinId="28"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="標準 2" xfId="3"/>
     <cellStyle name="標準 3" xfId="4"/>
     <cellStyle name="良い" xfId="5" builtinId="26"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8BFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -3988,10 +3869,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9">
     <tableStyle name="Project Timeline" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="42"/>
-      <tableStyleElement type="headerRow" dxfId="41"/>
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="secondRowStripe" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="secondRowStripe" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4418,10 +4299,10 @@
   <dimension ref="A1:AM171"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <pane xSplit="11" ySplit="3" topLeftCell="L137" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="11" ySplit="3" topLeftCell="L133" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
+      <selection pane="bottomRight" activeCell="H158" sqref="H158:H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4441,17 +4322,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
@@ -4484,15 +4365,15 @@
       <c r="AM1" s="24"/>
     </row>
     <row r="2" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
@@ -4579,10 +4460,10 @@
       <c r="AM3" s="18"/>
     </row>
     <row r="4" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4629,8 +4510,8 @@
       <c r="AM4" s="18"/>
     </row>
     <row r="5" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="52"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="21" t="s">
         <v>114</v>
       </c>
@@ -4675,8 +4556,8 @@
       <c r="AM5" s="18"/>
     </row>
     <row r="6" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="52"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="21" t="s">
         <v>113</v>
       </c>
@@ -4721,8 +4602,8 @@
       <c r="AM6" s="18"/>
     </row>
     <row r="7" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="52"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="21" t="s">
         <v>112</v>
       </c>
@@ -4767,8 +4648,8 @@
       <c r="AM7" s="18"/>
     </row>
     <row r="8" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="52"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="21" t="s">
         <v>111</v>
       </c>
@@ -4813,8 +4694,8 @@
       <c r="AM8" s="18"/>
     </row>
     <row r="9" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="52"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="21" t="s">
         <v>110</v>
       </c>
@@ -4859,8 +4740,8 @@
       <c r="AM9" s="18"/>
     </row>
     <row r="10" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="52"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="21" t="s">
         <v>109</v>
       </c>
@@ -4903,8 +4784,8 @@
       <c r="AM10" s="18"/>
     </row>
     <row r="11" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="52"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="21" t="s">
         <v>214</v>
       </c>
@@ -4947,8 +4828,8 @@
       <c r="AM11" s="18"/>
     </row>
     <row r="12" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="52"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="21" t="s">
         <v>215</v>
       </c>
@@ -4993,8 +4874,8 @@
       <c r="AM12" s="18"/>
     </row>
     <row r="13" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="52"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="20"/>
       <c r="E13" s="10"/>
       <c r="F13" s="19"/>
@@ -5033,8 +4914,8 @@
       <c r="AM13" s="18"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="B14" s="52"/>
-      <c r="C14" s="53" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -5047,11 +4928,11 @@
       <c r="G14" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="B15" s="52"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="12" t="s">
         <v>106</v>
       </c>
@@ -5062,11 +4943,11 @@
       <c r="G15" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H15" s="74"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="B16" s="52"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="12" t="s">
         <v>105</v>
       </c>
@@ -5077,11 +4958,11 @@
       <c r="G16" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H16" s="75"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="12" t="s">
         <v>104</v>
       </c>
@@ -5092,11 +4973,11 @@
       <c r="G17" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H17" s="75"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="52"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="12" t="s">
         <v>103</v>
       </c>
@@ -5110,8 +4991,8 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="52"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="9" t="s">
         <v>216</v>
       </c>
@@ -5123,8 +5004,8 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="52"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="9" t="s">
         <v>217</v>
       </c>
@@ -5136,8 +5017,8 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="52"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="12" t="s">
         <v>102</v>
       </c>
@@ -5151,8 +5032,8 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="52"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="12" t="s">
         <v>101</v>
       </c>
@@ -5166,8 +5047,8 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="52"/>
-      <c r="C23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="12" t="s">
         <v>100</v>
       </c>
@@ -5178,11 +5059,11 @@
       <c r="G23" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H23" s="75"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="52"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="12"/>
       <c r="E24" s="10"/>
       <c r="F24" s="9"/>
@@ -5190,8 +5071,8 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="52"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="12"/>
       <c r="E25" s="10"/>
       <c r="F25" s="9"/>
@@ -5199,8 +5080,8 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="52"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="12"/>
       <c r="E26" s="10"/>
       <c r="F26" s="9"/>
@@ -5208,8 +5089,8 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="52"/>
-      <c r="C27" s="52" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54" t="s">
         <v>99</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -5223,8 +5104,8 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="12" t="s">
         <v>97</v>
       </c>
@@ -5238,8 +5119,8 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="12" t="s">
         <v>96</v>
       </c>
@@ -5250,11 +5131,11 @@
       <c r="G29" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="H29" s="75"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="13" t="s">
         <v>95</v>
       </c>
@@ -5268,8 +5149,8 @@
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="12" t="s">
         <v>94</v>
       </c>
@@ -5283,8 +5164,8 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="12" t="s">
         <v>93</v>
       </c>
@@ -5298,8 +5179,8 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="9"/>
@@ -5307,8 +5188,8 @@
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="52"/>
-      <c r="C34" s="48" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="50" t="s">
         <v>203</v>
       </c>
       <c r="D34" s="12" t="s">
@@ -5324,8 +5205,8 @@
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="52"/>
-      <c r="C35" s="50"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="12" t="s">
         <v>91</v>
       </c>
@@ -5339,7 +5220,7 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="52"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="38"/>
       <c r="D36" s="12"/>
       <c r="E36" s="10"/>
@@ -5348,8 +5229,8 @@
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="52"/>
-      <c r="C37" s="51" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="53" t="s">
         <v>204</v>
       </c>
       <c r="D37" s="12" t="s">
@@ -5362,11 +5243,11 @@
       <c r="G37" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H37" s="75"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="52"/>
-      <c r="C38" s="51"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="12" t="s">
         <v>89</v>
       </c>
@@ -5377,11 +5258,11 @@
       <c r="G38" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H38" s="75"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="52"/>
-      <c r="C39" s="51"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="12" t="s">
         <v>88</v>
       </c>
@@ -5392,11 +5273,11 @@
       <c r="G39" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H39" s="75"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="52"/>
-      <c r="C40" s="51"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="12" t="s">
         <v>87</v>
       </c>
@@ -5407,11 +5288,11 @@
       <c r="G40" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="76"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="52"/>
-      <c r="C41" s="51"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="12" t="s">
         <v>86</v>
       </c>
@@ -5422,11 +5303,11 @@
       <c r="G41" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="52"/>
-      <c r="C42" s="51"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="12" t="s">
         <v>85</v>
       </c>
@@ -5437,11 +5318,11 @@
       <c r="G42" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H42" s="75"/>
+      <c r="H42" s="45"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="52"/>
-      <c r="C43" s="51"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="12" t="s">
         <v>84</v>
       </c>
@@ -5455,8 +5336,8 @@
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="52"/>
-      <c r="C44" s="51"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="12" t="s">
         <v>235</v>
       </c>
@@ -5470,8 +5351,8 @@
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="52"/>
-      <c r="C45" s="51"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="12" t="s">
         <v>83</v>
       </c>
@@ -5485,8 +5366,8 @@
       <c r="H45" s="9"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="52"/>
-      <c r="C46" s="51"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="12" t="s">
         <v>82</v>
       </c>
@@ -5500,8 +5381,8 @@
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="52"/>
-      <c r="C47" s="51"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="12" t="s">
         <v>81</v>
       </c>
@@ -5513,8 +5394,8 @@
       <c r="H47" s="9"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="52"/>
-      <c r="C48" s="51"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="12" t="s">
         <v>80</v>
       </c>
@@ -5528,8 +5409,8 @@
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="52"/>
-      <c r="C49" s="51"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="12" t="s">
         <v>79</v>
       </c>
@@ -5543,8 +5424,8 @@
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="52"/>
-      <c r="C50" s="51"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="12" t="s">
         <v>78</v>
       </c>
@@ -5556,7 +5437,7 @@
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="52"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="38"/>
       <c r="D51" s="12"/>
       <c r="E51" s="10"/>
@@ -5565,8 +5446,8 @@
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B52" s="52"/>
-      <c r="C52" s="51" t="s">
+      <c r="B52" s="54"/>
+      <c r="C52" s="53" t="s">
         <v>206</v>
       </c>
       <c r="D52" s="12" t="s">
@@ -5579,11 +5460,11 @@
       <c r="G52" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H52" s="75"/>
+      <c r="H52" s="45"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B53" s="52"/>
-      <c r="C53" s="51"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="12" t="s">
         <v>76</v>
       </c>
@@ -5594,11 +5475,11 @@
       <c r="G53" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H53" s="75"/>
+      <c r="H53" s="45"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B54" s="52"/>
-      <c r="C54" s="51"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="12" t="s">
         <v>75</v>
       </c>
@@ -5609,11 +5490,11 @@
       <c r="G54" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H54" s="74"/>
+      <c r="H54" s="44"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B55" s="52"/>
-      <c r="C55" s="51"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="12" t="s">
         <v>74</v>
       </c>
@@ -5624,11 +5505,11 @@
       <c r="G55" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H55" s="74"/>
+      <c r="H55" s="44"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B56" s="52"/>
-      <c r="C56" s="51"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="12" t="s">
         <v>73</v>
       </c>
@@ -5639,11 +5520,11 @@
       <c r="G56" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H56" s="75"/>
+      <c r="H56" s="45"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B57" s="52"/>
-      <c r="C57" s="51"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="12" t="s">
         <v>72</v>
       </c>
@@ -5654,11 +5535,11 @@
       <c r="G57" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H57" s="75"/>
+      <c r="H57" s="45"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B58" s="52"/>
-      <c r="C58" s="51"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="12" t="s">
         <v>71</v>
       </c>
@@ -5672,8 +5553,8 @@
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B59" s="52"/>
-      <c r="C59" s="51"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="12" t="s">
         <v>70</v>
       </c>
@@ -5687,8 +5568,8 @@
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B60" s="52"/>
-      <c r="C60" s="51"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="12" t="s">
         <v>69</v>
       </c>
@@ -5702,8 +5583,8 @@
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B61" s="52"/>
-      <c r="C61" s="51"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="12" t="s">
         <v>68</v>
       </c>
@@ -5717,8 +5598,8 @@
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B62" s="52"/>
-      <c r="C62" s="51"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="12" t="s">
         <v>67</v>
       </c>
@@ -5732,8 +5613,8 @@
       <c r="H62" s="9"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B63" s="52"/>
-      <c r="C63" s="51"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="12" t="s">
         <v>66</v>
       </c>
@@ -5747,8 +5628,8 @@
       <c r="H63" s="9"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" s="52"/>
-      <c r="C64" s="51"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="12" t="s">
         <v>65</v>
       </c>
@@ -5760,7 +5641,7 @@
       <c r="H64" s="9"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B65" s="52"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="38"/>
       <c r="D65" s="12"/>
       <c r="E65" s="10"/>
@@ -5769,8 +5650,8 @@
       <c r="H65" s="9"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B66" s="52"/>
-      <c r="C66" s="51" t="s">
+      <c r="B66" s="54"/>
+      <c r="C66" s="53" t="s">
         <v>205</v>
       </c>
       <c r="D66" s="12" t="s">
@@ -5783,11 +5664,11 @@
       <c r="G66" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H66" s="75"/>
+      <c r="H66" s="45"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B67" s="52"/>
-      <c r="C67" s="51"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="12" t="s">
         <v>230</v>
       </c>
@@ -5798,11 +5679,11 @@
       <c r="G67" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H67" s="75"/>
+      <c r="H67" s="45"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B68" s="52"/>
-      <c r="C68" s="51"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="12" t="s">
         <v>63</v>
       </c>
@@ -5813,11 +5694,11 @@
       <c r="G68" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H68" s="75"/>
+      <c r="H68" s="45"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B69" s="52"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="12" t="s">
         <v>62</v>
       </c>
@@ -5828,11 +5709,11 @@
       <c r="G69" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H69" s="75"/>
+      <c r="H69" s="45"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B70" s="52"/>
-      <c r="C70" s="51"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="12" t="s">
         <v>61</v>
       </c>
@@ -5843,11 +5724,11 @@
       <c r="G70" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="H70" s="75"/>
+      <c r="H70" s="45"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B71" s="52"/>
-      <c r="C71" s="51"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="12" t="s">
         <v>60</v>
       </c>
@@ -5861,8 +5742,8 @@
       <c r="H71" s="9"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B72" s="52"/>
-      <c r="C72" s="51"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="12" t="s">
         <v>59</v>
       </c>
@@ -5876,8 +5757,8 @@
       <c r="H72" s="9"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B73" s="52"/>
-      <c r="C73" s="51"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="12" t="s">
         <v>58</v>
       </c>
@@ -5891,8 +5772,8 @@
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B74" s="52"/>
-      <c r="C74" s="51"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="12" t="s">
         <v>57</v>
       </c>
@@ -5906,8 +5787,8 @@
       <c r="H74" s="9"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B75" s="52"/>
-      <c r="C75" s="51"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="12" t="s">
         <v>56</v>
       </c>
@@ -5921,8 +5802,8 @@
       <c r="H75" s="9"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B76" s="52"/>
-      <c r="C76" s="51"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="12" t="s">
         <v>55</v>
       </c>
@@ -5936,8 +5817,8 @@
       <c r="H76" s="9"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B77" s="52"/>
-      <c r="C77" s="51"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="12" t="s">
         <v>54</v>
       </c>
@@ -5951,8 +5832,8 @@
       <c r="H77" s="9"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B78" s="52"/>
-      <c r="C78" s="51"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="12" t="s">
         <v>53</v>
       </c>
@@ -5966,8 +5847,8 @@
       <c r="H78" s="9"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B79" s="52"/>
-      <c r="C79" s="51"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="12" t="s">
         <v>52</v>
       </c>
@@ -5979,7 +5860,7 @@
       <c r="H79" s="9"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B80" s="52"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="38"/>
       <c r="D80" s="12"/>
       <c r="E80" s="10"/>
@@ -5988,7 +5869,7 @@
       <c r="H80" s="9"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B81" s="52"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="38"/>
       <c r="D81" s="12"/>
       <c r="E81" s="10"/>
@@ -5997,7 +5878,7 @@
       <c r="H81" s="9"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B82" s="52"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="38"/>
       <c r="D82" s="12"/>
       <c r="E82" s="10"/>
@@ -6006,7 +5887,7 @@
       <c r="H82" s="9"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B83" s="52"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="38"/>
       <c r="D83" s="12"/>
       <c r="E83" s="10"/>
@@ -6015,7 +5896,7 @@
       <c r="H83" s="9"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B84" s="52"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="38"/>
       <c r="D84" s="12"/>
       <c r="E84" s="10"/>
@@ -6024,7 +5905,7 @@
       <c r="H84" s="9"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B85" s="52"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="38"/>
       <c r="D85" s="12"/>
       <c r="E85" s="10"/>
@@ -6033,7 +5914,7 @@
       <c r="H85" s="9"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B86" s="52"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="38"/>
       <c r="D86" s="12"/>
       <c r="E86" s="10"/>
@@ -6042,7 +5923,7 @@
       <c r="H86" s="9"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B87" s="52"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="38"/>
       <c r="D87" s="12"/>
       <c r="E87" s="10"/>
@@ -6051,7 +5932,7 @@
       <c r="H87" s="9"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B88" s="52"/>
+      <c r="B88" s="54"/>
       <c r="C88" s="38"/>
       <c r="D88" s="12"/>
       <c r="E88" s="10"/>
@@ -6060,7 +5941,7 @@
       <c r="H88" s="9"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B89" s="52"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="38"/>
       <c r="D89" s="12"/>
       <c r="E89" s="10"/>
@@ -6069,7 +5950,7 @@
       <c r="H89" s="9"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B90" s="52"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="38"/>
       <c r="D90" s="12"/>
       <c r="E90" s="10"/>
@@ -6078,7 +5959,7 @@
       <c r="H90" s="9"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B91" s="52"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="38"/>
       <c r="D91" s="12"/>
       <c r="E91" s="10"/>
@@ -6087,7 +5968,7 @@
       <c r="H91" s="9"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B92" s="52"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="38"/>
       <c r="D92" s="12"/>
       <c r="E92" s="10"/>
@@ -6096,10 +5977,10 @@
       <c r="H92" s="9"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B93" s="52" t="s">
+      <c r="B93" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C93" s="53" t="s">
         <v>207</v>
       </c>
       <c r="D93" s="12" t="s">
@@ -6112,11 +5993,11 @@
       <c r="G93" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H93" s="9"/>
+      <c r="H93" s="45"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B94" s="52"/>
-      <c r="C94" s="51"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="53"/>
       <c r="D94" s="12" t="s">
         <v>50</v>
       </c>
@@ -6127,11 +6008,11 @@
       <c r="G94" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H94" s="9"/>
+      <c r="H94" s="45"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B95" s="52"/>
-      <c r="C95" s="51"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="53"/>
       <c r="D95" s="12" t="s">
         <v>49</v>
       </c>
@@ -6142,11 +6023,11 @@
       <c r="G95" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H95" s="9"/>
+      <c r="H95" s="45"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B96" s="52"/>
-      <c r="C96" s="51"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="53"/>
       <c r="D96" s="12" t="s">
         <v>48</v>
       </c>
@@ -6157,11 +6038,11 @@
       <c r="G96" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H96" s="9"/>
+      <c r="H96" s="44"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B97" s="52"/>
-      <c r="C97" s="51"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="53"/>
       <c r="D97" s="12" t="s">
         <v>47</v>
       </c>
@@ -6172,11 +6053,11 @@
       <c r="G97" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H97" s="9"/>
+      <c r="H97" s="76"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B98" s="52"/>
-      <c r="C98" s="51"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="53"/>
       <c r="D98" s="12" t="s">
         <v>46</v>
       </c>
@@ -6187,11 +6068,11 @@
       <c r="G98" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H98" s="9"/>
+      <c r="H98" s="44"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B99" s="52"/>
-      <c r="C99" s="51"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="53"/>
       <c r="D99" s="12" t="s">
         <v>45</v>
       </c>
@@ -6202,11 +6083,11 @@
       <c r="G99" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H99" s="9"/>
+      <c r="H99" s="76"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B100" s="52"/>
-      <c r="C100" s="51"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="53"/>
       <c r="D100" s="12" t="s">
         <v>44</v>
       </c>
@@ -6220,8 +6101,8 @@
       <c r="H100" s="9"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B101" s="52"/>
-      <c r="C101" s="51"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="53"/>
       <c r="D101" s="12" t="s">
         <v>43</v>
       </c>
@@ -6235,8 +6116,8 @@
       <c r="H101" s="9"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B102" s="52"/>
-      <c r="C102" s="51"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="53"/>
       <c r="D102" s="12" t="s">
         <v>42</v>
       </c>
@@ -6250,8 +6131,8 @@
       <c r="H102" s="9"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B103" s="52"/>
-      <c r="C103" s="51"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="53"/>
       <c r="D103" s="12" t="s">
         <v>41</v>
       </c>
@@ -6265,8 +6146,8 @@
       <c r="H103" s="9"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B104" s="52"/>
-      <c r="C104" s="51"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="53"/>
       <c r="D104" s="12" t="s">
         <v>40</v>
       </c>
@@ -6280,8 +6161,8 @@
       <c r="H104" s="9"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B105" s="52"/>
-      <c r="C105" s="51"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="53"/>
       <c r="D105" s="12" t="s">
         <v>39</v>
       </c>
@@ -6295,8 +6176,8 @@
       <c r="H105" s="9"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B106" s="52"/>
-      <c r="C106" s="51"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="53"/>
       <c r="D106" s="12" t="s">
         <v>38</v>
       </c>
@@ -6310,8 +6191,8 @@
       <c r="H106" s="9"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B107" s="52"/>
-      <c r="C107" s="51"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="53"/>
       <c r="D107" s="12" t="s">
         <v>37</v>
       </c>
@@ -6323,7 +6204,7 @@
       <c r="H107" s="9"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B108" s="52"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="39"/>
       <c r="D108" s="12"/>
       <c r="E108" s="10"/>
@@ -6332,8 +6213,8 @@
       <c r="H108" s="9"/>
     </row>
     <row r="109" spans="2:8" s="3" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="52"/>
-      <c r="C109" s="51" t="s">
+      <c r="B109" s="54"/>
+      <c r="C109" s="53" t="s">
         <v>36</v>
       </c>
       <c r="D109" s="15" t="s">
@@ -6346,11 +6227,11 @@
       <c r="G109" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H109" s="16"/>
+      <c r="H109" s="77"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B110" s="52"/>
-      <c r="C110" s="51"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="53"/>
       <c r="D110" s="14" t="s">
         <v>34</v>
       </c>
@@ -6361,11 +6242,11 @@
       <c r="G110" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="H110" s="9"/>
+      <c r="H110" s="76"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B111" s="52"/>
-      <c r="C111" s="51"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="53"/>
       <c r="D111" s="15" t="s">
         <v>33</v>
       </c>
@@ -6376,11 +6257,11 @@
       <c r="G111" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H111" s="9"/>
+      <c r="H111" s="76"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B112" s="52"/>
-      <c r="C112" s="51"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="53"/>
       <c r="D112" s="9"/>
       <c r="E112" s="10"/>
       <c r="F112" s="9"/>
@@ -6388,8 +6269,8 @@
       <c r="H112" s="9"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B113" s="52"/>
-      <c r="C113" s="51"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="53"/>
       <c r="D113" s="14" t="s">
         <v>32</v>
       </c>
@@ -6400,11 +6281,11 @@
       <c r="G113" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H113" s="9"/>
+      <c r="H113" s="44"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B114" s="52"/>
-      <c r="C114" s="51"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="53"/>
       <c r="D114" s="14" t="s">
         <v>31</v>
       </c>
@@ -6418,8 +6299,8 @@
       <c r="H114" s="9"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B115" s="52"/>
-      <c r="C115" s="51"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="53"/>
       <c r="D115" s="14"/>
       <c r="E115" s="10"/>
       <c r="F115" s="9"/>
@@ -6427,8 +6308,8 @@
       <c r="H115" s="9"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B116" s="52"/>
-      <c r="C116" s="51"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="53"/>
       <c r="D116" s="12" t="s">
         <v>30</v>
       </c>
@@ -6439,11 +6320,11 @@
       <c r="G116" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H116" s="9"/>
+      <c r="H116" s="45"/>
     </row>
     <row r="117" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B117" s="52"/>
-      <c r="C117" s="51"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="53"/>
       <c r="D117" s="12" t="s">
         <v>29</v>
       </c>
@@ -6454,11 +6335,11 @@
       <c r="G117" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H117" s="9"/>
+      <c r="H117" s="45"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B118" s="52"/>
-      <c r="C118" s="51"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="53"/>
       <c r="D118" s="12" t="s">
         <v>28</v>
       </c>
@@ -6469,11 +6350,11 @@
       <c r="G118" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H118" s="9"/>
+      <c r="H118" s="45"/>
     </row>
     <row r="119" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B119" s="52"/>
-      <c r="C119" s="51"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="53"/>
       <c r="D119" s="12" t="s">
         <v>27</v>
       </c>
@@ -6484,11 +6365,11 @@
       <c r="G119" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H119" s="9"/>
+      <c r="H119" s="76"/>
     </row>
     <row r="120" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B120" s="52"/>
-      <c r="C120" s="51"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="53"/>
       <c r="D120" s="12" t="s">
         <v>26</v>
       </c>
@@ -6499,11 +6380,11 @@
       <c r="G120" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H120" s="9"/>
+      <c r="H120" s="76"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B121" s="52"/>
-      <c r="C121" s="51"/>
+      <c r="B121" s="54"/>
+      <c r="C121" s="53"/>
       <c r="D121" s="12"/>
       <c r="E121" s="10"/>
       <c r="F121" s="9"/>
@@ -6511,8 +6392,8 @@
       <c r="H121" s="9"/>
     </row>
     <row r="122" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B122" s="52"/>
-      <c r="C122" s="51"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="53"/>
       <c r="D122" s="12" t="s">
         <v>25</v>
       </c>
@@ -6523,11 +6404,11 @@
       <c r="G122" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H122" s="9"/>
+      <c r="H122" s="76"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B123" s="52"/>
-      <c r="C123" s="51"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="53"/>
       <c r="D123" s="12" t="s">
         <v>24</v>
       </c>
@@ -6538,11 +6419,11 @@
       <c r="G123" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H123" s="9"/>
+      <c r="H123" s="76"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B124" s="52"/>
-      <c r="C124" s="51"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="53"/>
       <c r="D124" s="12"/>
       <c r="E124" s="10"/>
       <c r="F124" s="9"/>
@@ -6550,8 +6431,8 @@
       <c r="H124" s="9"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B125" s="52"/>
-      <c r="C125" s="51"/>
+      <c r="B125" s="54"/>
+      <c r="C125" s="53"/>
       <c r="D125" s="13" t="s">
         <v>23</v>
       </c>
@@ -6562,11 +6443,11 @@
       <c r="G125" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="H125" s="9"/>
+      <c r="H125" s="76"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B126" s="52"/>
-      <c r="C126" s="51"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="53"/>
       <c r="D126" s="13" t="s">
         <v>22</v>
       </c>
@@ -6577,11 +6458,11 @@
       <c r="G126" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="H126" s="9"/>
+      <c r="H126" s="76"/>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B127" s="52"/>
-      <c r="C127" s="51"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="53"/>
       <c r="D127" s="9"/>
       <c r="E127" s="10"/>
       <c r="F127" s="9"/>
@@ -6589,8 +6470,8 @@
       <c r="H127" s="9"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B128" s="52"/>
-      <c r="C128" s="51"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="53"/>
       <c r="D128" s="9"/>
       <c r="E128" s="10"/>
       <c r="F128" s="9"/>
@@ -6598,16 +6479,16 @@
       <c r="H128" s="9"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B129" s="52"/>
-      <c r="C129" s="51"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="53"/>
       <c r="E129" s="10"/>
       <c r="F129" s="9"/>
       <c r="G129" s="43"/>
       <c r="H129" s="9"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B130" s="52"/>
-      <c r="C130" s="51"/>
+      <c r="B130" s="54"/>
+      <c r="C130" s="53"/>
       <c r="D130" s="12" t="s">
         <v>21</v>
       </c>
@@ -6621,8 +6502,8 @@
       <c r="H130" s="9"/>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B131" s="52"/>
-      <c r="C131" s="51"/>
+      <c r="B131" s="54"/>
+      <c r="C131" s="53"/>
       <c r="D131" s="12" t="s">
         <v>20</v>
       </c>
@@ -6636,8 +6517,8 @@
       <c r="H131" s="9"/>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B132" s="52"/>
-      <c r="C132" s="51"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="53"/>
       <c r="D132" s="12" t="s">
         <v>19</v>
       </c>
@@ -6651,8 +6532,8 @@
       <c r="H132" s="9"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B133" s="52"/>
-      <c r="C133" s="51"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="53"/>
       <c r="D133" s="12" t="s">
         <v>18</v>
       </c>
@@ -6666,8 +6547,8 @@
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B134" s="52"/>
-      <c r="C134" s="51"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="53"/>
       <c r="D134" s="12" t="s">
         <v>17</v>
       </c>
@@ -6681,8 +6562,8 @@
       <c r="H134" s="9"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B135" s="52"/>
-      <c r="C135" s="51"/>
+      <c r="B135" s="54"/>
+      <c r="C135" s="53"/>
       <c r="D135" s="12" t="s">
         <v>16</v>
       </c>
@@ -6696,8 +6577,8 @@
       <c r="H135" s="9"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B136" s="52"/>
-      <c r="C136" s="51"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="53"/>
       <c r="D136" s="12" t="s">
         <v>15</v>
       </c>
@@ -6711,8 +6592,8 @@
       <c r="H136" s="9"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B137" s="52"/>
-      <c r="C137" s="51"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="53"/>
       <c r="D137" s="12" t="s">
         <v>14</v>
       </c>
@@ -6726,8 +6607,8 @@
       <c r="H137" s="9"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B138" s="52"/>
-      <c r="C138" s="51"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="53"/>
       <c r="D138" s="12"/>
       <c r="E138" s="10"/>
       <c r="F138" s="9"/>
@@ -6735,8 +6616,8 @@
       <c r="H138" s="9"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B139" s="52"/>
-      <c r="C139" s="51"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="53"/>
       <c r="D139" s="9"/>
       <c r="E139" s="10"/>
       <c r="F139" s="9"/>
@@ -6744,8 +6625,8 @@
       <c r="H139" s="9"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B140" s="52"/>
-      <c r="C140" s="48" t="s">
+      <c r="B140" s="54"/>
+      <c r="C140" s="50" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="9" t="s">
@@ -6758,11 +6639,11 @@
       <c r="G140" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H140" s="9"/>
+      <c r="H140" s="45"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B141" s="52"/>
-      <c r="C141" s="49"/>
+      <c r="B141" s="54"/>
+      <c r="C141" s="51"/>
       <c r="D141" s="9" t="s">
         <v>11</v>
       </c>
@@ -6773,11 +6654,11 @@
       <c r="G141" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H141" s="9"/>
+      <c r="H141" s="76"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B142" s="52"/>
-      <c r="C142" s="49"/>
+      <c r="B142" s="54"/>
+      <c r="C142" s="51"/>
       <c r="D142" s="9" t="s">
         <v>10</v>
       </c>
@@ -6788,11 +6669,11 @@
       <c r="G142" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H142" s="9"/>
+      <c r="H142" s="76"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B143" s="52"/>
-      <c r="C143" s="49"/>
+      <c r="B143" s="54"/>
+      <c r="C143" s="51"/>
       <c r="D143" s="9" t="s">
         <v>9</v>
       </c>
@@ -6806,8 +6687,8 @@
       <c r="H143" s="9"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B144" s="52"/>
-      <c r="C144" s="49"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="51"/>
       <c r="D144" s="9" t="s">
         <v>234</v>
       </c>
@@ -6821,8 +6702,8 @@
       <c r="H144" s="9"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B145" s="52"/>
-      <c r="C145" s="49"/>
+      <c r="B145" s="54"/>
+      <c r="C145" s="51"/>
       <c r="D145" s="9" t="s">
         <v>8</v>
       </c>
@@ -6836,8 +6717,8 @@
       <c r="H145" s="9"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B146" s="52"/>
-      <c r="C146" s="49"/>
+      <c r="B146" s="54"/>
+      <c r="C146" s="51"/>
       <c r="D146" s="9" t="s">
         <v>7</v>
       </c>
@@ -6851,8 +6732,8 @@
       <c r="H146" s="9"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B147" s="52"/>
-      <c r="C147" s="49"/>
+      <c r="B147" s="54"/>
+      <c r="C147" s="51"/>
       <c r="D147" s="9" t="s">
         <v>6</v>
       </c>
@@ -6866,16 +6747,16 @@
       <c r="H147" s="9"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B148" s="52"/>
-      <c r="C148" s="49"/>
+      <c r="B148" s="54"/>
+      <c r="C148" s="51"/>
       <c r="E148" s="10"/>
       <c r="F148" s="9"/>
       <c r="G148" s="43"/>
       <c r="H148" s="9"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B149" s="52"/>
-      <c r="C149" s="49"/>
+      <c r="B149" s="54"/>
+      <c r="C149" s="51"/>
       <c r="D149" s="9"/>
       <c r="E149" s="10"/>
       <c r="F149" s="9"/>
@@ -6883,8 +6764,8 @@
       <c r="H149" s="9"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B150" s="52"/>
-      <c r="C150" s="49"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="51"/>
       <c r="D150" s="9"/>
       <c r="E150" s="10"/>
       <c r="F150" s="9"/>
@@ -6892,8 +6773,8 @@
       <c r="H150" s="9"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B151" s="52"/>
-      <c r="C151" s="49"/>
+      <c r="B151" s="54"/>
+      <c r="C151" s="51"/>
       <c r="D151" s="9"/>
       <c r="E151" s="10"/>
       <c r="F151" s="9"/>
@@ -6901,8 +6782,8 @@
       <c r="H151" s="9"/>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B152" s="52"/>
-      <c r="C152" s="50"/>
+      <c r="B152" s="54"/>
+      <c r="C152" s="52"/>
       <c r="D152" s="9"/>
       <c r="E152" s="10"/>
       <c r="F152" s="9"/>
@@ -6910,8 +6791,8 @@
       <c r="H152" s="9"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B153" s="52"/>
-      <c r="C153" s="48" t="s">
+      <c r="B153" s="54"/>
+      <c r="C153" s="50" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="9" t="s">
@@ -6924,11 +6805,11 @@
       <c r="G153" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H153" s="9"/>
+      <c r="H153" s="76"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B154" s="52"/>
-      <c r="C154" s="49"/>
+      <c r="B154" s="54"/>
+      <c r="C154" s="51"/>
       <c r="D154" s="9" t="s">
         <v>196</v>
       </c>
@@ -6940,8 +6821,8 @@
       <c r="H154" s="9"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B155" s="52"/>
-      <c r="C155" s="49"/>
+      <c r="B155" s="54"/>
+      <c r="C155" s="51"/>
       <c r="D155" s="9" t="s">
         <v>197</v>
       </c>
@@ -6953,8 +6834,8 @@
       <c r="H155" s="9"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B156" s="52"/>
-      <c r="C156" s="49"/>
+      <c r="B156" s="54"/>
+      <c r="C156" s="51"/>
       <c r="D156" s="12" t="s">
         <v>198</v>
       </c>
@@ -6966,8 +6847,8 @@
       <c r="H156" s="9"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B157" s="52"/>
-      <c r="C157" s="49"/>
+      <c r="B157" s="54"/>
+      <c r="C157" s="51"/>
       <c r="D157" s="12" t="s">
         <v>199</v>
       </c>
@@ -6981,8 +6862,8 @@
       <c r="H157" s="9"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B158" s="52"/>
-      <c r="C158" s="49"/>
+      <c r="B158" s="54"/>
+      <c r="C158" s="51"/>
       <c r="D158" s="12" t="s">
         <v>4</v>
       </c>
@@ -6993,11 +6874,11 @@
       <c r="G158" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="H158" s="9"/>
+      <c r="H158" s="76"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B159" s="52"/>
-      <c r="C159" s="49"/>
+      <c r="B159" s="54"/>
+      <c r="C159" s="51"/>
       <c r="D159" s="12" t="s">
         <v>3</v>
       </c>
@@ -7008,11 +6889,11 @@
       <c r="G159" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="H159" s="9"/>
+      <c r="H159" s="76"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B160" s="52"/>
-      <c r="C160" s="49"/>
+      <c r="B160" s="54"/>
+      <c r="C160" s="51"/>
       <c r="D160" s="12" t="s">
         <v>201</v>
       </c>
@@ -7023,11 +6904,11 @@
       <c r="G160" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H160" s="9"/>
+      <c r="H160" s="76"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B161" s="52"/>
-      <c r="C161" s="49"/>
+      <c r="B161" s="54"/>
+      <c r="C161" s="51"/>
       <c r="D161" s="12" t="s">
         <v>2</v>
       </c>
@@ -7038,11 +6919,11 @@
       <c r="G161" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H161" s="9"/>
+      <c r="H161" s="76"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B162" s="52"/>
-      <c r="C162" s="49"/>
+      <c r="B162" s="54"/>
+      <c r="C162" s="51"/>
       <c r="D162" s="13" t="s">
         <v>1</v>
       </c>
@@ -7053,11 +6934,11 @@
       <c r="G162" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H162" s="9"/>
+      <c r="H162" s="76"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B163" s="52"/>
-      <c r="C163" s="49"/>
+      <c r="B163" s="54"/>
+      <c r="C163" s="51"/>
       <c r="D163" s="13" t="s">
         <v>0</v>
       </c>
@@ -7071,8 +6952,8 @@
       <c r="H163" s="9"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B164" s="52"/>
-      <c r="C164" s="49"/>
+      <c r="B164" s="54"/>
+      <c r="C164" s="51"/>
       <c r="D164" s="13"/>
       <c r="E164" s="10"/>
       <c r="F164" s="9"/>
@@ -7080,8 +6961,8 @@
       <c r="H164" s="9"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B165" s="52"/>
-      <c r="C165" s="50"/>
+      <c r="B165" s="54"/>
+      <c r="C165" s="52"/>
       <c r="D165" s="12"/>
       <c r="E165" s="10"/>
       <c r="F165" s="9"/>
@@ -7089,7 +6970,7 @@
       <c r="H165" s="9"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B166" s="52"/>
+      <c r="B166" s="54"/>
       <c r="C166" s="11"/>
       <c r="D166" s="12"/>
       <c r="E166" s="10"/>
@@ -7098,7 +6979,7 @@
       <c r="H166" s="9"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B167" s="52"/>
+      <c r="B167" s="54"/>
       <c r="C167" s="11"/>
       <c r="D167" s="12"/>
       <c r="E167" s="10"/>
@@ -7107,7 +6988,7 @@
       <c r="H167" s="9"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B168" s="52"/>
+      <c r="B168" s="54"/>
       <c r="C168" s="11"/>
       <c r="D168" s="12"/>
       <c r="E168" s="10"/>
@@ -7116,7 +6997,7 @@
       <c r="H168" s="9"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B169" s="52"/>
+      <c r="B169" s="54"/>
       <c r="C169" s="11"/>
       <c r="D169" s="9"/>
       <c r="E169" s="10"/>
@@ -7298,10 +7179,10 @@
   <dimension ref="A1:AM76"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7317,15 +7198,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
       <c r="I1" s="27"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
@@ -7360,13 +7241,13 @@
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="27"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -7455,10 +7336,10 @@
     </row>
     <row r="4" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="67" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -7467,9 +7348,7 @@
       <c r="E4" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>241</v>
-      </c>
+      <c r="F4" s="35"/>
       <c r="G4" s="34" t="s">
         <v>231</v>
       </c>
@@ -7508,8 +7387,8 @@
     </row>
     <row r="5" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="65"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="25" t="s">
         <v>238</v>
       </c>
@@ -7555,8 +7434,8 @@
     </row>
     <row r="6" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="25" t="s">
         <v>239</v>
       </c>
@@ -7602,8 +7481,8 @@
     </row>
     <row r="7" spans="1:39" s="17" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="25" t="s">
         <v>140</v>
       </c>
@@ -7647,8 +7526,8 @@
     </row>
     <row r="8" spans="1:39" s="17" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="25" t="s">
         <v>141</v>
       </c>
@@ -7692,8 +7571,8 @@
     </row>
     <row r="9" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="25" t="s">
         <v>142</v>
       </c>
@@ -7739,8 +7618,8 @@
     </row>
     <row r="10" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="25" t="s">
         <v>218</v>
       </c>
@@ -7786,10 +7665,10 @@
     </row>
     <row r="11" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="64" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -7804,8 +7683,8 @@
     </row>
     <row r="12" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="25" t="s">
         <v>126</v>
       </c>
@@ -7818,8 +7697,8 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13" s="33"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="25" t="s">
         <v>127</v>
       </c>
@@ -7834,8 +7713,8 @@
     </row>
     <row r="14" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="33"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="62" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="64" t="s">
         <v>134</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -7850,8 +7729,8 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15" s="33"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="25" t="s">
         <v>129</v>
       </c>
@@ -7866,8 +7745,8 @@
     </row>
     <row r="16" spans="1:39" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="33"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="64" t="s">
         <v>136</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -7882,8 +7761,8 @@
     </row>
     <row r="17" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="33"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="26" t="s">
         <v>135</v>
       </c>
@@ -7896,8 +7775,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="33"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="25" t="s">
         <v>131</v>
       </c>
@@ -7912,8 +7791,8 @@
     </row>
     <row r="19" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="33"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="66" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="68" t="s">
         <v>138</v>
       </c>
       <c r="D19" s="25" t="s">
@@ -7927,8 +7806,8 @@
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="69"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="25" t="s">
         <v>221</v>
       </c>
@@ -7940,8 +7819,8 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="69"/>
-      <c r="C21" s="67"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="25" t="s">
         <v>222</v>
       </c>
@@ -7955,8 +7834,8 @@
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="69"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="26" t="s">
         <v>132</v>
       </c>
@@ -7968,8 +7847,8 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="69"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="25" t="s">
         <v>219</v>
       </c>
@@ -7983,8 +7862,8 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="59"/>
-      <c r="C24" s="73" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="75" t="s">
         <v>153</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -7998,8 +7877,8 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="25" t="s">
         <v>144</v>
       </c>
@@ -8011,8 +7890,8 @@
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="25" t="s">
         <v>145</v>
       </c>
@@ -8026,8 +7905,8 @@
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="59"/>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="58" t="s">
         <v>154</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -8043,8 +7922,8 @@
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="59"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="25" t="s">
         <v>147</v>
       </c>
@@ -8058,8 +7937,8 @@
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="59"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="25" t="s">
         <v>148</v>
       </c>
@@ -8073,8 +7952,8 @@
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="59"/>
-      <c r="C30" s="73" t="s">
+      <c r="B30" s="61"/>
+      <c r="C30" s="75" t="s">
         <v>155</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -8088,8 +7967,8 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="25" t="s">
         <v>150</v>
       </c>
@@ -8101,8 +7980,8 @@
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="25" t="s">
         <v>151</v>
       </c>
@@ -8116,8 +7995,8 @@
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
       <c r="D33" t="s">
         <v>152</v>
       </c>
@@ -8131,8 +8010,8 @@
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="25" t="s">
         <v>223</v>
       </c>
@@ -8146,7 +8025,7 @@
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="58" t="s">
         <v>157</v>
       </c>
       <c r="C35" s="31"/>
@@ -8163,7 +8042,7 @@
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="57"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="31"/>
       <c r="D36" s="25" t="s">
         <v>161</v>
@@ -8176,7 +8055,7 @@
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="57"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="31"/>
       <c r="D37" s="26" t="s">
         <v>162</v>
@@ -8191,7 +8070,7 @@
       <c r="H37" s="25"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="57"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="31"/>
       <c r="D38" s="25" t="s">
         <v>159</v>
@@ -8206,7 +8085,7 @@
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="57"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="31"/>
       <c r="D39" s="25" t="s">
         <v>160</v>
@@ -8221,7 +8100,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="57"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="31"/>
       <c r="D40" s="25" t="s">
         <v>170</v>
@@ -8236,7 +8115,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="57"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="31"/>
       <c r="D41" s="25" t="s">
         <v>171</v>
@@ -8251,7 +8130,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="57"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="31"/>
       <c r="D42" s="25"/>
       <c r="E42" s="40"/>
@@ -8260,7 +8139,7 @@
       <c r="H42" s="25"/>
     </row>
     <row r="43" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="57"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="31"/>
       <c r="E43" s="40"/>
       <c r="F43" s="25"/>
@@ -8268,7 +8147,7 @@
       <c r="H43" s="25"/>
     </row>
     <row r="44" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="58"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="31"/>
       <c r="D44" s="25"/>
       <c r="E44" s="40"/>
@@ -8277,7 +8156,7 @@
       <c r="H44" s="25"/>
     </row>
     <row r="45" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="59"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="31"/>
       <c r="D45" s="37" t="s">
         <v>168</v>
@@ -8290,7 +8169,7 @@
       <c r="H45" s="25"/>
     </row>
     <row r="46" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="59"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="31"/>
       <c r="D46" s="37" t="s">
         <v>169</v>
@@ -8303,7 +8182,7 @@
       <c r="H46" s="25"/>
     </row>
     <row r="47" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="59"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="31"/>
       <c r="D47" s="25" t="s">
         <v>163</v>
@@ -8316,7 +8195,7 @@
       <c r="H47" s="25"/>
     </row>
     <row r="48" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="59"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="31"/>
       <c r="D48" s="25" t="s">
         <v>164</v>
@@ -8329,7 +8208,7 @@
       <c r="H48" s="25"/>
     </row>
     <row r="49" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="59"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="31"/>
       <c r="D49" s="25" t="s">
         <v>165</v>
@@ -8342,7 +8221,7 @@
       <c r="H49" s="25"/>
     </row>
     <row r="50" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="59"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="31"/>
       <c r="D50" s="25" t="s">
         <v>166</v>
@@ -8355,7 +8234,7 @@
       <c r="H50" s="25"/>
     </row>
     <row r="51" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="60"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="31"/>
       <c r="D51" s="25"/>
       <c r="E51" s="40"/>
@@ -8364,7 +8243,7 @@
       <c r="H51" s="25"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="58" t="s">
         <v>172</v>
       </c>
       <c r="C52" s="31"/>
@@ -8381,7 +8260,7 @@
       <c r="H52" s="25"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B53" s="57"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="31"/>
       <c r="D53" s="25" t="s">
         <v>174</v>
@@ -8396,7 +8275,7 @@
       <c r="H53" s="25"/>
     </row>
     <row r="54" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="57"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="31"/>
       <c r="D54" s="25" t="s">
         <v>175</v>
@@ -8409,7 +8288,7 @@
       <c r="H54" s="25"/>
     </row>
     <row r="55" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="57"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="31"/>
       <c r="D55" s="25" t="s">
         <v>176</v>
@@ -8422,7 +8301,7 @@
       <c r="H55" s="25"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B56" s="57"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="31"/>
       <c r="D56" s="25" t="s">
         <v>167</v>
@@ -8437,7 +8316,7 @@
       <c r="H56" s="25"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B57" s="57"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="31"/>
       <c r="D57" s="25" t="s">
         <v>179</v>
@@ -8452,7 +8331,7 @@
       <c r="H57" s="25"/>
     </row>
     <row r="58" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="57"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="31"/>
       <c r="D58" s="25" t="s">
         <v>177</v>
@@ -8465,7 +8344,7 @@
       <c r="H58" s="25"/>
     </row>
     <row r="59" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="57"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="31"/>
       <c r="D59" s="25" t="s">
         <v>178</v>
@@ -8478,7 +8357,7 @@
       <c r="H59" s="25"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B60" s="57"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="31"/>
       <c r="D60" s="25" t="s">
         <v>180</v>
@@ -8493,7 +8372,7 @@
       <c r="H60" s="25"/>
     </row>
     <row r="61" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="58"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="31"/>
       <c r="D61" s="25" t="s">
         <v>181</v>
@@ -8506,7 +8385,7 @@
       <c r="H61" s="25"/>
     </row>
     <row r="62" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="58" t="s">
         <v>189</v>
       </c>
       <c r="C62" s="31"/>
@@ -8521,7 +8400,7 @@
       <c r="H62" s="25"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B63" s="57"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="31"/>
       <c r="D63" s="25" t="s">
         <v>191</v>
@@ -8536,7 +8415,7 @@
       <c r="H63" s="25"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" s="57"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="31"/>
       <c r="D64" s="25" t="s">
         <v>192</v>
@@ -8551,7 +8430,7 @@
       <c r="H64" s="25"/>
     </row>
     <row r="65" spans="2:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="57"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="31"/>
       <c r="D65" s="25" t="s">
         <v>193</v>
@@ -8564,7 +8443,7 @@
       <c r="H65" s="25"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B66" s="57"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="31"/>
       <c r="D66" s="25" t="s">
         <v>194</v>
@@ -8579,7 +8458,7 @@
       <c r="H66" s="25"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B67" s="58"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="31"/>
       <c r="D67" s="25" t="s">
         <v>224</v>
@@ -8866,7 +8745,7 @@
   <dimension ref="B3:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
